--- a/peliculasfin.xlsx
+++ b/peliculasfin.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="839">
   <si>
     <t>Emociones</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Prime Video </t>
   </si>
   <si>
-    <t xml:space="preserve">Chris Gradner es un hombre que, decidido a dar una vida mejor a su familia, inicia un negocio que no acaba bien. Chris se queda en paro, su mujer le abandona y le quitan la casa. Este padre soltero tendrá que luchar por una vida mejor para su hijo.
+    <t xml:space="preserve">Chris Gardner es un hombre que, decidido a dar una vida mejor a su familia, inicia un negocio que no acaba bien. Chris se queda en paro, su mujer le abandona y le quitan la casa. Este padre soltero tendrá que luchar por una vida mejor para su hijo.
 </t>
   </si>
   <si>
@@ -140,13 +140,13 @@
     <t>88 min</t>
   </si>
   <si>
-    <t>Drama , Anime basado en libre</t>
+    <t>Drama , Anime basado en libro</t>
   </si>
   <si>
     <t xml:space="preserve">Netflix </t>
   </si>
   <si>
-    <t>Dos huerfanos luchan por sobrevivir en el Japón de la posguerra mundial, pero la sociedad es cruel y apenas hay suficiente comida para seguir viviendo</t>
+    <t>Dos huérfanos luchan por sobrevivir en el Japón de la posguerra mundial, pero la sociedad es cruel y apenas hay suficiente comida para seguir viviendo.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oTUush1wXL0</t>
@@ -164,7 +164,7 @@
     <t>Melodrama</t>
   </si>
   <si>
-    <t>Violet quiere que la dejen sola. Finch quiere que lo vean, Juntos recorrerán las marqavillas de Indiana y encontrarán la conexión que necesitaban en su vida</t>
+    <t>Violet quiere que la dejen sola. Finch quiere que lo vean. Juntos recorrerán las maravillas de Indiana y encontrarán la conexión que necesitaban en su vida.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PTrN2pxwo4M</t>
@@ -179,7 +179,7 @@
     <t>122 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin poder encontrar a la madre de una niña abandona en la puerta de su casa, un playboy comienza a amar a la nena. </t>
+    <t xml:space="preserve">Un hombre que creó una nueva vida para él y la hija que fue dejada a su puerta seis años atrás ve su familia amenazada por la reaparición de la madre biológica.  </t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Ua5qcs7RHiY</t>
@@ -194,7 +194,7 @@
     <t>125 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Un chico se convierte en el cuidado de su abuela enferma en esta extraordinaria pelicula que toca todas nuestras fibras sensibles. </t>
+    <t xml:space="preserve">Un chico se convierte en el cuidado de su abuela enferma en esta extraordinaria película que toca todas nuestras fibras sensibles. </t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=lDRwR5wOsXM</t>
@@ -276,390 +276,370 @@
   </si>
   <si>
     <t>Decidida a ayudar a su hijo con parálisis cerebral, Bárbara lleva a su familia a la India para probar un tratamiento experimental. Basado en el libro homónimo.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ntuh5RN4GdQ?si=mP5w54M_xDOO4HLT</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BYTY0YzM1MzEtMmI5OS00MjFjLWIwZDQtMWU4MjYyZTQ2NjVlXkEyXkFqcGc@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Up: Una aventura de Altura</t>
+  </si>
+  <si>
+    <t>Drama, Acción y aventura, Animación</t>
+  </si>
+  <si>
+    <t>Disney+</t>
+  </si>
+  <si>
+    <t>El vendedor de globos retirado Carl Fredricksen se lanza al cielo atando miles de globos a su casa. Sin saberlo, un joven explorador llamado Russell se convierte en un polizón en el viaje que ninguno esperaba.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qoZo9MiICo0?si=KvftprcaFRVKWPyy</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSZHeYySdTuC7v_-RHRebVPV9AO3Nk9ZJUdSg&amp;s</t>
+  </si>
+  <si>
+    <t>La lista de Schindler</t>
+  </si>
+  <si>
+    <t>195 min</t>
+  </si>
+  <si>
+    <t>Bélico, Drama</t>
+  </si>
+  <si>
+    <t>HBO Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El empresario alemán Oskar Schindler, miembro del Partido Nazi, pone en marcha un elaborado, costoso y arriesgado plan para salvar a más de mil judíos del Holocausto.
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BmkchuRJ82w&amp;rco=1</t>
+  </si>
+  <si>
+    <t>https://images.cdn2.buscalibre.com/fit-in/360x360/88/ec/88ec92dc9591d05c1b4407a2249505d7.jpg</t>
+  </si>
+  <si>
+    <t>Desde mi cielo</t>
+  </si>
+  <si>
+    <t>135 min</t>
+  </si>
+  <si>
+    <t>Fantasía, Terror</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de que es violada y asesinada, una joven de 14 años vigila desde el cielo mientras su familia intenta superar lo vivido y el homicida continúa impune.
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yxSddp16wbg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTOpaae0w_vFN9ZRjEZJ0vXb-lvST6RIOk-mg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La habitación </t>
+  </si>
+  <si>
+    <t>108 min</t>
+  </si>
+  <si>
+    <t>Suspenso, Misterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack tiene cinco años y no conoce nada del mundo fuera del cuarto donde nació. Él fue mantenido en cautiverio al lado de su madre.
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkEnJkLv5Xc</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/S/pv-target-images/88311be3065d49f59fe6d0b2bf25e2660eb29324e1ef0077cdc9de6be5d9e72c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajo la misma estrella </t>
+  </si>
+  <si>
+    <t>126 min</t>
+  </si>
+  <si>
+    <t>Romance, Comedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos adolescentes pacientes de cáncer inician un viaje para reafirmar sus vidas y visitar a un escritor solitario en Ámsterdam.
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9Lt8QAZkc94</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BYzJkNTQ1MmUtZjliYi00OGQwLTgyY2UtOTk3MTM1Mzk4NmRjXkEyXkFqcGc@._V1_FMjpg_UX1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi primer beso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 min </t>
+  </si>
+  <si>
+    <t>Infantil, Romance</t>
+  </si>
+  <si>
+    <t>Apple TV</t>
+  </si>
+  <si>
+    <t>Durante un verano lleno de cambios importantes, una niña de 11 años busca el apoyo de su mejor amigo cuando su padre viudo se enamora de otra mujer.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_JRODzZ0cjw</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BNmRjODk4M2QtNGZiMi00ODFhLWJjMWQtYWViMjZhYWU0OWJhXkEyXkFqcGc@._V1_FMjpg_UX1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 min </t>
+  </si>
+  <si>
+    <t>Romance, LGBT+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUBI </t>
+  </si>
+  <si>
+    <t>Una pareja viaja a Argentina, pero ambos hombres ven cómo sus vidas se separan en direcciones opuestas.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cU_u8xQspQg?si=cuAfW9dp54FrhN_Y</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BNzQ2YWYyMzUtMTAyZC00NDg1LWJjZmUtYWRjNzQxYzA4MWUwXkEyXkFqcGc@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Brokeback Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134 min </t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>La historia de una relación prohibida y secreta entre dos vaqueros, y sus vidas a lo largo de los años.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z89xU8l5wn8</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQcNHjLELPI1Y3LksN5r-FHxCIOCoY5d-QHlg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sociedad de los poetas muertos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 min </t>
+  </si>
+  <si>
+    <t>Un profesor de inglés inspira a sus alumnos a mirar la poesía con una perspectiva diferente.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ye4KFyWu2do</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BMTYyZGU5ZTUtMTk0ZS00MGM5LTk5NDktZmZlNTk1ZjJmNWE5XkEyXkFqcGc@._V1_FMjpg_UX1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La la land </t>
+  </si>
+  <si>
+    <t>Musical, Romance</t>
+  </si>
+  <si>
+    <t>Mientras luchan por sus carreras en Los Ángeles, un pianista y una actriz se enamoran intentando reconciliar sus aspiraciones para el futuro.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=45s24h98iOc</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRk2rkqWG4pATQe3UycJsgRNpNwdu3rv8uiCw&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost in translation </t>
+  </si>
+  <si>
+    <t>Drama, Romance</t>
+  </si>
+  <si>
+    <t>Una estrella de cine en decadencia y una joven ignorada forman un vínculo improbable después de cruzar sus caminos en Tokio.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W6iVPCRflQM</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSOs8HwJVxDyFLENV7PNN-fFrIROrWga4Pvlg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los vírgenes suicidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 min </t>
+  </si>
+  <si>
+    <t>En el extrarradio de Detroit a mediados de los 70, un grupo de amigos se obsesiona con cinco hermanas misteriosas, protegidas por sus estrictamente religiosos padres.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YRPXQ3XcpKc</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGav7x_-iQTxlx-iJOWjavzOzilzGQkj4T4w&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y tu mamá también </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 min </t>
+  </si>
+  <si>
+    <t>Drama, Comedia</t>
+  </si>
+  <si>
+    <t>En México, dos adolescentes y una atractiva mujer se embarcan en un viaje de carretera y aprenden cosas sobre la vida, la amistad, el sexo y ellos mismos.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UW1LQbtRuAM</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRMfvDXBq1lcZRW187wkqcPwLuxopK08ORuDQ&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo, adolescente </t>
+  </si>
+  <si>
+    <t>Drama , Coming-of-age</t>
+  </si>
+  <si>
+    <t>Luego de la muerte de un amigo, un adolescente escribe sobre su vida diaria, pero cae en una crisis mientras descubre su sexualidad.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-IoeS5470Dg?si=QPs-WdktS6D7QXFX</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRE84aIxulfXIfem9eSinluAJCVVA1Dud5uVA&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eterno resplandor de una mente sin recuerdos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 min </t>
+  </si>
+  <si>
+    <t>Romance , Ciencia ficción</t>
+  </si>
+  <si>
+    <t>Cuando su relación se deteriora, una pareja se somete a un proceso médico para borrar el uno al otro de su memoria.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/07-QBnEkgXU?si=zQFUnxROkg_PjRQ0</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSeF-wN2y5O3MxgH3viwOC0o6NbRXLSu2L8MA&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 min </t>
+  </si>
+  <si>
+    <t>Una joven de la aristocracia se enamora de un chico pobre pero de buen corazón a bordo del lujoso Titanic.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tA_qMdzvCvk?si=oUHQXPey5EgVb4WR</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-MyGOej6DSik7EbgazARPw9iWmweM9Dck7Q&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful boy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 min </t>
+  </si>
+  <si>
+    <t>Drama , Biográfico</t>
+  </si>
+  <si>
+    <t>Basada en dos autobiografías best-seller por el dúo padre-e-hijo David y Nic Sheff, "Beautiful Boy" es una crónica que te romperá el corazón, y una inspiradora experiencia de supervivencia, recaída, y recuperación en una familia que lidia con los problemas de la adicción durante años.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/y23HyopQxEg?si=MwJUJraYrfkYTjgu</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYkhuEeWiHeNcDJ0597CcRMPXlJ0B7Nz_9bQ&amp;s</t>
+  </si>
+  <si>
+    <t>Kimi no Na wa. (Your Name.)</t>
+  </si>
+  <si>
+    <t>106 min</t>
+  </si>
+  <si>
+    <t>Animación</t>
+  </si>
+  <si>
+    <t>Netflix, Crunchyroll</t>
+  </si>
+  <si>
+    <t>Mitsuha es una estudiante que se lamenta de su vida en el campo junto a su hermana pequeña, su abuela y su padre, un político al que nunca ve. Detesta las pintorescas costumbres de su familia y sueña con el maravilloso estilo de vida de los habitantes de Tokyo. Por su parte, Taki es un estudiante que vive en Tokyo, tiene un trabajo a tiempo parcial en un restaurante italiano y necesita alejarse de su familia. Una noche, Mitsuha sueña que es un chico de Tokyo y Taki sueña que es una chica que vive en el campo. ¿Cuál es el secreto que se oculta tras los sueños de dos personas que a pesar de que no se conocen de nada parecen buscarse desesperadamente?.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yPPaLgSXYlM</t>
+  </si>
+  <si>
+    <t>https://es.web.img2.acsta.net/pictures/17/02/08/13/45/536055.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Silent Voice (Koe no Katachi) </t>
+  </si>
+  <si>
+    <t>130 min</t>
+  </si>
+  <si>
+    <t>Drama escolar</t>
+  </si>
+  <si>
+    <t>Un ex acosador escolar se comunica con la chica sorda que atormentó en su infancia e intenta arreglar las cosas, aunque se siente indigno de su perdón.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nfK6UgLra7g</t>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>Los Dos Hemisferios de Lucca | Tráiler oficial | Netflix</t>
+      <t>https://m.media-amazon.com/images/M/MV5BOTFiNzRiOWEtYTQwNy00NmRiLWE0ZWYtNTE0YjExZjFmZjkwXkEyXkFqcGc@._V1_.jpg</t>
     </r>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/M/MV5BYTY0YzM1MzEtMmI5OS00MjFjLWIwZDQtMWU4MjYyZTQ2NjVlXkEyXkFqcGc@._V1_.jpg</t>
-  </si>
-  <si>
-    <t>Up: Una aventura de Altura</t>
-  </si>
-  <si>
-    <t>Drama, Acción y aventura, Animación</t>
-  </si>
-  <si>
-    <t>Disney+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El vendedor de globos retirado Carl Fredricksen se lanza al cielo atando miles de globos a su casa. Sin saberlo, un joven explorador llamado Russell se convierte en un polizón en el viaje que ninguno esperaba.
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
         <u/>
       </rPr>
-      <t>UP | Tráiler Oficial | Disney · Pixar Oficial</t>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSZHeYySdTuC7v_-RHRebVPV9AO3Nk9ZJUdSg&amp;s</t>
-  </si>
-  <si>
-    <t>La lista de Schindler</t>
-  </si>
-  <si>
-    <t>195 min</t>
-  </si>
-  <si>
-    <t>Bélico, Drama</t>
-  </si>
-  <si>
-    <t>HBO Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El empresario alemán Oskar Schindler, miembro del Partido Nazi, pone en marcha un elaborado, costoso y arriesgado plan para salvar a más de mil judíos del Holocausto.
-</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BmkchuRJ82w&amp;rco=1</t>
-  </si>
-  <si>
-    <t>https://images.cdn2.buscalibre.com/fit-in/360x360/88/ec/88ec92dc9591d05c1b4407a2249505d7.jpg</t>
-  </si>
-  <si>
-    <t>Desde mi cielo</t>
-  </si>
-  <si>
-    <t>135 min</t>
-  </si>
-  <si>
-    <t>Fantasía, Terror</t>
-  </si>
-  <si>
-    <t>Mercado Libre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Después de que es violada y asesinada, una joven de 14 años vigila desde el cielo mientras su familia intenta superar lo vivido y el homicida continúa impune.
-</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yxSddp16wbg</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTOpaae0w_vFN9ZRjEZJ0vXb-lvST6RIOk-mg&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La habitación </t>
-  </si>
-  <si>
-    <t>108 min</t>
-  </si>
-  <si>
-    <t>Suspenso, Misterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack tiene cinco años y no conoce nada del mundo fuera del cuarto donde nació. Él fue mantenido en cautiverio al lado de su madre.
-</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkEnJkLv5Xc</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/S/pv-target-images/88311be3065d49f59fe6d0b2bf25e2660eb29324e1ef0077cdc9de6be5d9e72c.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajo la misma estrella </t>
-  </si>
-  <si>
-    <t>126 min</t>
-  </si>
-  <si>
-    <t>Romance, Comedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos adolescentes pacientes de cáncer inician un viaje para reafirmar sus vidas y visitar a un escritor solitario en Ámsterdam.
-</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9Lt8QAZkc94</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/M/MV5BYzJkNTQ1MmUtZjliYi00OGQwLTgyY2UtOTk3MTM1Mzk4NmRjXkEyXkFqcGc@._V1_FMjpg_UX1000_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi primer beso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 min </t>
-  </si>
-  <si>
-    <t>Infantil, Romance</t>
-  </si>
-  <si>
-    <t>Apple TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante un verano lleno de cambios importantes, una niña de 11 años busca el apoyo de su mejor amigo cuando su padre viudo se enamora de otra mujer.
-</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_JRODzZ0cjw</t>
-  </si>
-  <si>
-    <t>https://pics.filmaffinity.com/Mi_primer_beso-413989101-large.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy together </t>
-  </si>
-  <si>
-    <t xml:space="preserve">96 min </t>
-  </si>
-  <si>
-    <t>Romance, LGBT+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUBI </t>
-  </si>
-  <si>
-    <t>Una pareja viaja a Argentina, pero ambos hombres ven cómo sus vidas se separan en direcciones opuestas.</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/M/MV5BNzQ2YWYyMzUtMTAyZC00NDg1LWJjZmUtYWRjNzQxYzA4MWUwXkEyXkFqcGc@._V1_.jpg</t>
-  </si>
-  <si>
-    <t>Brokeback Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134 min </t>
-  </si>
-  <si>
-    <t>Romance</t>
-  </si>
-  <si>
-    <t>La historia de una relación prohibida y secreta entre dos vaqueros, y sus vidas a lo largo de los años.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z89xU8l5wn8</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQcNHjLELPI1Y3LksN5r-FHxCIOCoY5d-QHlg&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La sociedad de los poetas muertos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">128 min </t>
-  </si>
-  <si>
-    <t>Un profesor de inglés inspira a sus alumnos a mirar la poesía con una perspectiva diferente.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ye4KFyWu2do</t>
-  </si>
-  <si>
-    <t>https://static.wikia.nocookie.net/doblaje/images/6/67/DPS_Poster_en_espa%C3%B1ol.png/revision/latest?cb=20250816212909&amp;path-prefix=es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La la land </t>
-  </si>
-  <si>
-    <t>Musical, Romance</t>
-  </si>
-  <si>
-    <t>Mientras luchan por sus carreras en Los Ángeles, una pianista y una actriz se enamoran mientras intentan reconciliar sus aspiraciones para el futuro.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=45s24h98iOc</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRk2rkqWG4pATQe3UycJsgRNpNwdu3rv8uiCw&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost in transalation </t>
-  </si>
-  <si>
-    <t>Drama, Romance</t>
-  </si>
-  <si>
-    <t>Una estrella de cine en decadencia y una joven ignorada forman un vínculo improbable después de cruzar sus caminos en Tokio.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W6iVPCRflQM</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSOs8HwJVxDyFLENV7PNN-fFrIROrWga4Pvlg&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los virgenes suicidas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97 min </t>
-  </si>
-  <si>
-    <t>En el extrarradio de Detroit a mediados de los 70, un grupo de amigos se obsesiona con cinco hermanas misteriosas, protegidas por sus estrictamente religiosos padres.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YRPXQ3XcpKc</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGav7x_-iQTxlx-iJOWjavzOzilzGQkj4T4w&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y tu mama también </t>
-  </si>
-  <si>
-    <t xml:space="preserve">106 min </t>
-  </si>
-  <si>
-    <t>Drama, Comedia</t>
-  </si>
-  <si>
-    <t>En México, dos adolescentes y una atractiva mujer se embarcan en un viaje de carretera y aprenden cosas sobre la vida, la amistad, el sexo y ellos mismos.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UW1LQbtRuAM</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRMfvDXBq1lcZRW187wkqcPwLuxopK08ORuDQ&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yo, adolescente </t>
-  </si>
-  <si>
-    <t>Drama , Coming-of-age</t>
-  </si>
-  <si>
-    <t>Luego de la muerte de un amigo, un adolescente escribe sobre su vida diaria, pero cae en una crisis mientras descubre su sexualidad.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Yo, adolescente (Memories of a Teenager) | Trailer 1 | Noviembre 12 | Netflix LATAM / ES / US</t>
-    </r>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRE84aIxulfXIfem9eSinluAJCVVA1Dud5uVA&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eterno resplandor de una mente sin recuerdos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">108 min </t>
-  </si>
-  <si>
-    <t>Romance , Ciencia ficción</t>
-  </si>
-  <si>
-    <t>Cuando su relación se deteriora, una pareja se somete a un proceso médico para borrar el uno al otro de su memoria.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Eternal sunshine of the spotless mind - Trailer Sub Español</t>
-    </r>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSeF-wN2y5O3MxgH3viwOC0o6NbRXLSu2L8MA&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">194 min </t>
-  </si>
-  <si>
-    <t>Una joven de la aristocracia se enamora de un chico pobre pero de buen corazón a bordo del lujoso Titanic.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Titanic | Re-estreno | Tráiler Oficial Subtitulado</t>
-    </r>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-MyGOej6DSik7EbgazARPw9iWmweM9Dck7Q&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beautiful boy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 min </t>
-  </si>
-  <si>
-    <t>Drama , Biográfico</t>
-  </si>
-  <si>
-    <t>Basada en dos autobiografías best-seller por el dúo padre-e-hijo David y Nic Sheff, "Beautiful Boy" es una crónica que te romperá el corazón, y una inspiradora experiencia de supervivencia, recaída, y recuperación en una familia que lidia con los problemas de la adicción durante años.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Beautiful Boy - Official Trailer | Amazon Studios</t>
-    </r>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYkhuEeWiHeNcDJ0597CcRMPXlJ0B7Nz_9bQ&amp;s</t>
-  </si>
-  <si>
-    <t>Kimi no Na wa. (Your Name.)</t>
-  </si>
-  <si>
-    <t>106 min</t>
-  </si>
-  <si>
-    <t>Animación</t>
-  </si>
-  <si>
-    <t>Netflix, Crunchyroll</t>
-  </si>
-  <si>
-    <t>Mitsuha es una estudiante que se lamenta de su vida en el campo junto a su hermana pequeña, su abuela y su padre, un político al que nunca ve. Detesta las pintorescas costumbres de su familia y sueña con el maravilloso estilo de vida de los habitantes de Tokyo. Por su parte, Taki es un estudiante que vive en Tokyo, tiene un trabajo a tiempo parcial en un restaurante italiano y necesita alejarse de su familia. Una noche, Mitsuha sueña que es un chico de Tokyo y Taki sueña que es una chica que vive en el campo. ¿Cuál es el secreto que se oculta tras los sueños de dos personas que a pesar de que no se conocen de nada parecen buscarse desesperadamente?.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yPPaLgSXYlM</t>
-  </si>
-  <si>
-    <t>https://es.web.img2.acsta.net/pictures/17/02/08/13/45/536055.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Silent Voice (Koe no Katachi) </t>
-  </si>
-  <si>
-    <t>130 min</t>
-  </si>
-  <si>
-    <t>Drama escolar</t>
-  </si>
-  <si>
-    <t>Un exacosador escolar se comunica con la chica sorda que atormentó en su infancia e intenta arreglar las cosas, aunque se siente indigno de su perdón.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nfK6UgLra7g</t>
-  </si>
-  <si>
-    <t>https://pics.filmaffinity.com/A_Silent_Voice-151795078-large.jpg</t>
   </si>
   <si>
     <t>Alegría</t>
@@ -692,13 +672,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Freaky Friday (2003) Trailer #1 | Chad Michael Murray, Jamie Lee Curtis, Lindsay Lohan, Mark Harmon</t>
-    </r>
+    <t>https://youtu.be/r8caetzt02g?si=qh8BjwdeA7JNpOCL</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRUA5eHmgMkvVYhQS9L5we4n3T24CsunYY2VQ&amp;s</t>
@@ -734,13 +708,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>The Hangover: ¿Que Paso Ayer? (2009) Tráiler Oficial Doblado al Español Latino[HD]</t>
-    </r>
+    <t>https://youtu.be/wnNgGp1KVWQ?si=xLuISCaxRZtFwGmh</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSvdUQljtBec8p7a6rhBggsoH3G8Eixd8FjXw&amp;s</t>
@@ -910,7 +878,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Recién entrando a la prepa, una adolescente entabla amistad con tres populares, pero también manipuladoras estudiantes.
+    <t xml:space="preserve">Recién entrando a la preparatoria, una adolescente entabla amistad con tres populares, pero también manipuladoras estudiantes.
 </t>
   </si>
   <si>
@@ -920,13 +888,13 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSQ2jH4cp5CwEv17IWfr_IVboPYFME3zf4zZw&amp;s</t>
   </si>
   <si>
-    <t xml:space="preserve">Legally Blondy           </t>
-  </si>
-  <si>
-    <t>Prime Video, Apple TV</t>
-  </si>
-  <si>
-    <t>Elle Woods se apunta a derecho en la universidad donde va su exnovio y descubre que tiene más que una cara bonita</t>
+    <t xml:space="preserve">Legally Blonde           </t>
+  </si>
+  <si>
+    <t>Primer Vídeo, Apple TV</t>
+  </si>
+  <si>
+    <t>Elle Woods se apunta a derecho en la universidad donde va su exnovio y descubre que tiene más que una cara bonita.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LGF1Y0xNQ1g</t>
@@ -935,26 +903,13 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIYzg9d_JQuR272qTsodh5_VXFfGJ0RyG9Vg&amp;s</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> 13 Going on 30              (Si yo tuviera 30)     </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramount+, Netflix, HBO Max Max, Apple TV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despuén de un humillante decimotercer cumpleaños, Jenna Rink desea ser adulta. Al día siguiente, se despierta como una editora de modas de 30 años </t>
+    <t xml:space="preserve">13 Going on 30              (Si yo tuviera 30)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramount, Netflix, HBO Max, Apple TV </t>
+  </si>
+  <si>
+    <t>Después de un humillante decimotercer cumpleaños, Jenna Rink desea ser adulta. Al día siguiente, se despierta como una editora de modas de 30 años .</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=SFyryzzY8cE</t>
@@ -982,7 +937,7 @@
     <t>116 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Netflix, Prime Video, Apple TV, Paramount+, HBO Max Max, </t>
+    <t>Netflix, Prime Video, Apple TV, Paramount, HBO Max</t>
   </si>
   <si>
     <t>Ben apuesta a sus compañeros de trabajo que puede hacer que una mujer se enamore de él en solo 10 días. Pero llega Andie, una escritora con su propio plan en marcha.</t>
@@ -1016,7 +971,7 @@
     <t xml:space="preserve">Los habitantes de un pueblo adormilado traman un plan de locos para lograr que un médico se enamore del lugar y ya nunca lo deje. Una divertida comedia de Celso R. García. </t>
   </si>
   <si>
-    <t>https://www.netflix.com/pe/title/81552473</t>
+    <t>https://youtu.be/78pWNxRJsG0?si=IxHzU9KvFWRdQ97B</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/M/MV5BNmEwMWI2MzAtZjBlNi00ZjRlLWJjMTktZjdlMzVhOTQ3NDU0XkEyXkFqcGc@._V1_.jpg</t>
@@ -1044,7 +999,7 @@
     <t xml:space="preserve">Disney+, Prime Video, Netflix </t>
   </si>
   <si>
-    <t>La pequeña Olive Hooverde 7 años, desea competir en el concurso Pequeña Miss Sunshine en el lejano California, pero esto requiere un gran esfuerzo por parte de su disfuncional familia –y de la oxidada camioneta Volkswagen– para hacer su sueño realidad</t>
+    <t>La pequeña Olive Hoover De 7 años, desea competir en el concurso Pequeña Miss Sunshine en el lejano California, pero esto requiere un gran esfuerzo por parte de su disfuncional familia –y de la oxidada camioneta Volkswagen– para hacer su sueño realidad.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wvwVkllXT80</t>
@@ -1069,7 +1024,7 @@
     </r>
   </si>
   <si>
-    <t>Tras años de fingir estar casado, un cirujano plástico soltero conoce a la mujer de sus sueños y le pide a su asistente que se haga pasar por su futura exposa.</t>
+    <t>Tras años de fingir estar casado, un cirujano plástico soltero conoce a la mujer de sus sueños y le pide a su asistente que se haga pasar por su futura esposa.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=xuZnmYjAKww</t>
@@ -1097,10 +1052,10 @@
     <t>114 min</t>
   </si>
   <si>
-    <t>Zequi, un ladrón de bancos recientemente liberado que va a recuperar el dinero robado enterrado por su cómplice antes de ir a la cárcel.</t>
-  </si>
-  <si>
-    <t>https://www.netflix.com/pe/title/80102059</t>
+    <t xml:space="preserve">Zequi, un ladrón de bancos recientemente liberado que va a recuperar el dinero robado enterrado por su cómplice antes de ir a la cárcel. En el sitio han levantado el gimnasio de una escuela llamada Frida Khalo y Zeki acepta un trabajo de maestro sustituto junto a la profesora Lucy. </t>
+  </si>
+  <si>
+    <t>https://youtu.be/dNQxljO2kzE?si=SbhNMVkmYRHpccO_</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRWcIfSbp5df26tSgfaQo1uG429RqtibL-xHA&amp;s</t>
@@ -1131,7 +1086,7 @@
     <t>Cuando la importante editora está por ser deportada y regresada a Canadá, declara que está comprometida con su sufrido asistente a quien ha atormentado por años.</t>
   </si>
   <si>
-    <t>https://www.disneyplus.com/es-pe/browse/entity-595405af-f3c4-48ab-8fce-9633d0be25db?msockid=3896024610036f01245317aa112f6ea8</t>
+    <t>https://youtu.be/rCs8skCWF98?si=8ICunNqf_8nYeWtH</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/M/MV5BZmZkZTNiMGMtM2E4YS00ZmQ0LWIxMDUtY2YzMWJlZTIxZjUyXkEyXkFqcGc@._V1_FMjpg_UX1000_.jpg</t>
@@ -1153,7 +1108,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Una mujer que sueña con ser mamá se pone una barriga falsa e inesperadamente conoce al hombre de sus sueños en esta comedia </t>
+    <t>Una mujer que sueña con ser mamá se pone una barriga falsa e inesperadamente conoce al hombre de sus sueños en esta comedia.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=G_zOSFi6ZuY</t>
@@ -1302,10 +1257,7 @@
     <t>Comedia , Terror</t>
   </si>
   <si>
-    <t>HBO Max Max</t>
-  </si>
-  <si>
-    <t>Un grupo de veinteañeras ricas planea una fiesta en una remota mansión familiar, pero un juego se distorsiona. Falsos amigos y una fiesta que sale muy mal.</t>
+    <t>Un grupo de veinteañeras adineradas planean una fiesta en una remota mansión familiar, pero un juego se distorsiona. Falsos amigos y una fiesta que sale muy mal.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DMgLMaLlK9k</t>
@@ -1317,7 +1269,7 @@
     <t xml:space="preserve">Booksmart  </t>
   </si>
   <si>
-    <t>La noche antes de su graduación, dos mejores amigos, superestrellas académicas, se dan cuenta de que podrían haberse divertido más y trabajado menos. Con la determinación de no quedarse atrás, se prometen pasar una noche inolvidable.</t>
+    <t>La noche antes de su graduación, dos mejores amigas, superestrellas académicas, se dan cuenta de que podrían haberse divertido más y trabajado menos. Con la determinación de no quedarse atrás, se prometen pasar una noche inolvidable.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VjGJm3wV5-I</t>
@@ -1497,7 +1449,7 @@
     <t>HBO Max, Apple TV</t>
   </si>
   <si>
-    <t xml:space="preserve">Después de haberle robado 40 000 dólares a su jefe, Marion Crane huye de la policía y se detiene a pasar la noche en un motel que se erige junto a una carretera perdida. El establecimiento lo regentan un joven tímido y extraño y su madre.
+    <t xml:space="preserve">Después de haberle robado 40 000 dólares a su jefe, Marion Crane huye de la policía y se detiene a pasar la noche en un motel que se drige junto a una carretera perdida. El establecimiento lo regentan un joven tímido y extraño y su madre.
 </t>
   </si>
   <si>
@@ -1588,7 +1540,7 @@
     <t>Netflix, Rekuten Viki</t>
   </si>
   <si>
-    <t>La vida de una mujer da un vuelo cuando un hombre peligroso encuentro su telefóno y lo usa para seguirle los pasos .</t>
+    <t>La vida de una mujer da un vuelo cuando un hombre peligroso encuentra su telefóno y lo usa para seguirle los pasos .</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=CZP462oTo_U</t>
@@ -1618,7 +1570,7 @@
     <t>Annabelle</t>
   </si>
   <si>
-    <t>HBO Max Max, HBO Max Max Amazon Channel, Apple TV</t>
+    <t>HBO Max, Amazon Channel, Apple TV</t>
   </si>
   <si>
     <t>Una pareja empieza a sufrir aterradoras situaciones sobrenaturales relacionadas con una muñeca antigua poco tiempo después de que su casa sea invadida por ocultistas satánicos.</t>
@@ -1636,7 +1588,7 @@
     <t>89 min</t>
   </si>
   <si>
-    <t>Netflix, Apple TV, HBO Max Max</t>
+    <t>Netflix, Apple TV, HBO Max</t>
   </si>
   <si>
     <t>Un grupo de amigos debe enfrentarse a sus mayores miedos al despertar los oscuros poderes de un antiguo tablero espiritual.</t>
@@ -1672,7 +1624,7 @@
     <t>Terror,Intriga</t>
   </si>
   <si>
-    <t>En 1918, un chica de gramja de Texas con un insaciable deseo de alcanzar la fama se arriesfa cada vez más en busca de su gran oportunidad.</t>
+    <t>En 1918, un chica de granja de Texas con un insaciable deseo de alcanzar la fama se arriesga cada vez más en busca de su gran oportunidad.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=L5PW5r3pEOg</t>
@@ -1702,7 +1654,7 @@
     <t>Fragmentado</t>
   </si>
   <si>
-    <t xml:space="preserve">Tres adolescentes secuestras y encerradas en un sótano presencian cómo las múltples personalinades de su captor se manipulan e intimidan entre sí oara tomar el control </t>
+    <t>Tres adolescentes secuestradas y encerradas en un sótano presencian cómo las múltples personalidades de su captor se manipulan e intimidan entre sí para tomar el control .</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mIggnAKLWIE</t>
@@ -1747,6 +1699,9 @@
     <t>Terror , Suspenso</t>
   </si>
   <si>
+    <t>Prime Video, Apple TV</t>
+  </si>
+  <si>
     <t>Después de ser secuestrado por un asesino de niños y encerrado en un sótano a prueba de sonido, un chico de trece años comienza a recibir llamadas desde un teléfono desconectado de las víctimas anteriores del asesino.</t>
   </si>
   <si>
@@ -1846,7 +1801,7 @@
     <t>Terror , Slasher</t>
   </si>
   <si>
-    <t>arias personas son perseguidas por un cruel asesino en serie que mata a sus víctimas durante sus sueños. Mientras los supervivientes tratan de encontrar el motivo por el que han sido elegidos, el asesino no desperdiciará ninguna ocasión para matarlos tan pronto como se duerman.</t>
+    <t>Varias personas son perseguidas por un cruel asesino en serie que mata a sus víctimas durante sus sueños. Mientras los supervivientes tratan de encontrar el motivo por el que han sido elegidos, el asesino no desperdiciará ninguna ocasión para matarlos tan pronto como se duerman.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JMT0dqE-ozs</t>
@@ -1858,9 +1813,6 @@
     <t>La hora de la desaparicion</t>
   </si>
   <si>
-    <t>Prime</t>
-  </si>
-  <si>
     <t>Cuando todos los niños de una misma clase, salvo uno, desaparecen misteriosamente en la misma noche y a la misma hora, la comunidad se pregunta quién o qué está detrás de su desaparición.</t>
   </si>
   <si>
@@ -1888,7 +1840,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRsvbjF2E4HyIgnQfySABCBR63rjBBjXtPx6A&amp;s</t>
   </si>
   <si>
-    <t>#vivo</t>
+    <t>#Vivo</t>
   </si>
   <si>
     <t>Terror, zoombies</t>
@@ -1900,7 +1852,19 @@
     <t>https://www.youtube.com/watch?v=skH9L6kAdD4</t>
   </si>
   <si>
-    <t>https://pics.filmaffinity.com/Vivo-334892661-large.jpg</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://images.justwatch.com/poster/224944885/s718/vivo.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>Death Note</t>
@@ -1956,6 +1920,9 @@
     </r>
   </si>
   <si>
+    <t>Netflix, Prime Video, Apple TV, Paramount+, HBO Max</t>
+  </si>
+  <si>
     <t>10 cosas que odio de ti</t>
   </si>
   <si>
@@ -1966,13 +1933,13 @@
     <t>https://www.youtube.com/watch?v=7qOVNX2nbHI</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/doblaje/images/6/64/10Cosasqueodiodeti.jpg/revision/latest?cb=20210727000357&amp;path-prefix=es</t>
+    <t>https://m.media-amazon.com/images/S/pv-target-images/2eb205f10fa369c3bc185a9c83a86eec783c9c546544a4295886b9dd9856ce57.jpg</t>
   </si>
   <si>
     <t>Como si fuera la primera vez</t>
   </si>
   <si>
-    <t>HBO Max Max, Claro Video,  Prime Video, Netflix y Apple TV</t>
+    <t>HBO Max, Claro Video,  Prime Video, Netflix y Apple TV</t>
   </si>
   <si>
     <t>Henry, biólogo marino, no tiene la mínima intención de comprometerse con nadie hasta que conoce a Lucy, la chica de sus sueños. Sin embargo, hay un pequeño problema, la joven se levanta cada mañana sin recordar absolutamente nada del día anterior.</t>
@@ -2095,7 +2062,7 @@
     <t>Drama,Romance</t>
   </si>
   <si>
-    <t>Agobiada por las deudas, una cantautora (Sofia Carson) se casa por conveniencia con un marine. Sin embargo, el amor empieza a nacer...</t>
+    <t>Agobiada por las deudas, una cantautora (Sofia Carson) se casa por conveniencia con un marino. Sin embargo, el amor empieza a nacer...</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=sbNbeSCQfX8</t>
@@ -2107,7 +2074,7 @@
     <t>Los desenredos del amor</t>
   </si>
   <si>
-    <t>Una adoslecente enamorada busca conquistar al galán de la escuela alisándose el pelo, hasta que un estudiante recién llegado a Seúl lo cambia todo.</t>
+    <t>Una adolescente te enamorada busca conquistar al galán de la escuela alisándose el pelo, hasta que un estudiante recién llegado a Seúl lo cambia todo.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HMM0ltgVDRU</t>
@@ -2161,7 +2128,7 @@
     <t xml:space="preserve">Netflix, Apple TV </t>
   </si>
   <si>
-    <t>Sophie sueña con convertirse en escritora. Viaja a Verona, donde descubre una plaza en la que la gente deja cartas de amor no correspondido</t>
+    <t>Sophie sueña con convertirse en escritora. Viaja a Verona, donde descubre una plaza en la que la gente deja cartas de amor no correspondido.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8j0qMY-LeKM</t>
@@ -2236,15 +2203,6 @@
     <t>Titanic</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Titanic | Re-estreno | Tráiler Oficial Subtitulado</t>
-    </r>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/811lT7khIrL._AC_UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
@@ -2272,7 +2230,7 @@
     <t>Romance, Drama, Deporte</t>
   </si>
   <si>
-    <t>Tres jugadores que se conocieron cuando eran adolescentes mientras compiten en un torneo de tenis para ser el ganador del mundialmente famoso Grand Slam, y reavivan viejas rivalidades dentro y fuera de la pista.</t>
+    <t>Tres jugadores que se conocieron cuando eran adolescentes mientras compiten en un torneo de tenis para ser el ganador del mundialmente famoso Grand Slam, y revivan viejas rivalidades dentro y fuera de la pista.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AXEK7y1BuNQ</t>
@@ -2308,7 +2266,7 @@
     <t>https://www.youtube.com/watch?v=b-wEibP-xLE</t>
   </si>
   <si>
-    <t>https://play.google.com/store/movies/details/500_D%C3%AD_as_con_ella?id=bqwmrepw-FY&amp;hl=es_DO</t>
+    <t>https://m.media-amazon.com/images/S/pv-target-images/9b9915ea71150b667f96f0aa7305c7e0a164ea98d91c20ea66c9766d47623bd2.jpg</t>
   </si>
   <si>
     <t>La langosta</t>
@@ -2342,6 +2300,9 @@
   </si>
   <si>
     <t>La la land</t>
+  </si>
+  <si>
+    <t>Mientras luchan por sus carreras en Los Ángeles, una pianista y una actriz se enamoran mientras intentan reconciliar sus aspiraciones para el futuro.</t>
   </si>
   <si>
     <t>Las ventajas de ser invisible</t>
@@ -2518,7 +2479,7 @@
     <t>Comedia,Deporte,Romance</t>
   </si>
   <si>
-    <t>Una capitana de las animadoras descubre que su predecesora robó sus rutinas de una escuela local y no sabe cómo lo hará para competir en el campeonato anual</t>
+    <t>Una capitana de las animadoras descubre que su predecesora robó sus rutinas de una escuela local y no sabe cómo lo hará para competir en el campeonato anual.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ogaV3UT8OeA</t>
@@ -2840,7 +2801,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2879,11 +2840,12 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2902,7 +2864,15 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -3001,7 +2971,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3039,7 +3009,7 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -3048,13 +3018,22 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3068,11 +3047,17 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3080,17 +3065,17 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3113,18 +3098,18 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -3147,22 +3132,16 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3198,16 +3177,16 @@
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3237,7 +3216,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3691,7 +3670,7 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -3755,7 +3734,7 @@
       <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -3851,7 +3830,7 @@
       <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="17" t="s">
         <v>76</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -3944,10 +3923,10 @@
       <c r="F15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>92</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -3976,7 +3955,7 @@
       <c r="F16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -4040,7 +4019,7 @@
       <c r="F18" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -4072,7 +4051,7 @@
       <c r="F19" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="18" t="s">
         <v>91</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -4107,13 +4086,13 @@
       <c r="G20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4142,12 +4121,11 @@
       <c r="H21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="14" t="str">
-        <f>HYPERLINK("https://www.youtube.com/watch?v=5VPvFaAWX9U","HAPPY TOGETHER 4K | Official Trailer (English)")</f>
-        <v>HAPPY TOGETHER 4K | Official Trailer (English)</v>
+      <c r="I21" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
@@ -4155,31 +4133,31 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="6">
         <v>134.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="7">
         <v>2005.0</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -4187,13 +4165,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" s="6">
         <v>128.0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" s="7">
         <v>1989.0</v>
@@ -4201,17 +4179,17 @@
       <c r="F23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="18" t="s">
         <v>91</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="10" t="s">
         <v>144</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -4219,39 +4197,39 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="6">
         <v>128.0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7">
         <v>2016.0</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>147</v>
+      <c r="H24" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>150</v>
+      <c r="B25" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C25" s="6">
         <v>102.0</v>
@@ -4263,83 +4241,83 @@
         <v>2013.0</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>155</v>
+      <c r="B26" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="6">
         <v>97.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" s="7">
         <v>1999.0</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>160</v>
+      <c r="B27" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C27" s="6">
         <v>106.0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="7">
         <v>2001.0</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -4347,31 +4325,31 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="6">
         <v>97.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7">
         <v>2019.0</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -4379,63 +4357,63 @@
         <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="6">
         <v>108.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E29" s="7">
         <v>2004.0</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>98</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="16" t="s">
         <v>175</v>
       </c>
+      <c r="I29" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="J29" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="B30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="22">
         <v>194.0</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="D30" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="23">
         <v>1997.0</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="20" t="s">
+      <c r="F30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="26" t="s">
         <v>181</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31">
@@ -4443,31 +4421,31 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6">
         <v>120.0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" s="7">
         <v>2018.0</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="9" t="s">
         <v>186</v>
       </c>
+      <c r="I31" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="J31" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -4475,920 +4453,920 @@
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="24">
+        <v>189</v>
+      </c>
+      <c r="C32" s="29">
         <v>106.0</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="D32" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="18">
         <v>2016.0</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="G32" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="H32" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="I32" s="31" t="s">
         <v>194</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="B33" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="29">
         <v>130.0</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="D33" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="18">
         <v>2017.0</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="29" t="s">
+      <c r="H33" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="I33" s="33" t="s">
         <v>200</v>
       </c>
+      <c r="J33" s="34" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="32">
+      <c r="B34" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="37">
         <v>97.0</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="D34" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="38">
         <v>2003.0</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="37">
+        <v>100.0</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="38">
+        <v>2009.0</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="37">
+        <v>94.0</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2023.0</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="37">
+        <v>119.0</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="38">
+        <v>2007.0</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="37">
+        <v>102.0</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2010.0</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="37">
+        <v>103.0</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1990.0</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="37">
+        <v>109.0</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="38">
+        <v>2004.0</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="37">
+        <v>98.0</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="38">
+        <v>2006.0</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="37">
+        <v>103.0</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="38">
+        <v>2007.0</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="37">
+        <v>97.0</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="32">
+      <c r="E43" s="38">
+        <v>2004.0</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="37">
+        <v>96.0</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="46">
+        <v>2001.0</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="37">
+        <v>98.0</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" s="46">
+        <v>2004.0</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="48">
+        <v>116.0</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="50">
+        <v>2003.0</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="37">
+        <v>95.0</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="46">
+        <v>2023.0</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="37">
+        <v>101.0</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="46">
+        <v>2006.0</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="37">
+        <v>117.0</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="46">
+        <v>2011.0</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="37">
+        <v>114.0</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="46">
+        <v>2016.0</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="37">
+        <v>110.0</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="46">
+        <v>2009.0</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="37">
         <v>100.0</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="33">
-        <v>2009.0</v>
-      </c>
-      <c r="F35" s="34" t="s">
+      <c r="D52" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="32">
+      <c r="E52" s="46">
+        <v>2025.0</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="37">
+        <v>107.0</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="46">
+        <v>2016.0</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="37">
+        <v>99.0</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54" s="46">
+        <v>2014.0</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="37">
+        <v>92.0</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" s="38">
+        <v>2010.0</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="37">
+        <v>88.0</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="38">
+        <v>2012.0</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="37">
+        <v>103.0</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="38">
+        <v>2023.0</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="37">
+        <v>85.0</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="38">
+        <v>1999.0</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" s="37">
+        <v>92.0</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E59" s="38">
+        <v>2023.0</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="37">
         <v>94.0</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D60" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="33">
-        <v>2023.0</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="32">
-        <v>119.0</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="33">
-        <v>2007.0</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="32">
-        <v>102.0</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="33">
-        <v>2010.0</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="35" t="s">
+      <c r="E60" s="38">
+        <v>2022.0</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="32">
-        <v>103.0</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="33">
-        <v>1990.0</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="32">
-        <v>109.0</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="33">
-        <v>2004.0</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="32">
-        <v>98.0</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="33">
-        <v>2006.0</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="32">
-        <v>103.0</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="33">
-        <v>2007.0</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="32">
-        <v>97.0</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="33">
-        <v>2004.0</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" s="32">
-        <v>96.0</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="40">
-        <v>2001.0</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="32">
-        <v>98.0</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="40">
-        <v>2004.0</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="43">
-        <v>116.0</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="45">
-        <v>2003.0</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="I46" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="32">
-        <v>95.0</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="40">
-        <v>2023.0</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="32">
-        <v>101.0</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="40">
-        <v>2006.0</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" s="32">
-        <v>117.0</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="40">
-        <v>2011.0</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C50" s="32">
-        <v>114.0</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50" s="40">
-        <v>2016.0</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="32">
-        <v>110.0</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E51" s="40">
-        <v>2009.0</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="C52" s="32">
-        <v>100.0</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E52" s="40">
-        <v>2025.0</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" s="32">
-        <v>107.0</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="40">
-        <v>2016.0</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" s="32">
-        <v>99.0</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="E54" s="40">
-        <v>2014.0</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C55" s="32">
-        <v>92.0</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" s="33">
-        <v>2010.0</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="C56" s="32">
-        <v>88.0</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="33">
-        <v>2012.0</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" s="32">
-        <v>103.0</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="33">
-        <v>2023.0</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="C58" s="32">
-        <v>85.0</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="E58" s="33">
-        <v>1999.0</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="32">
-        <v>92.0</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E59" s="33">
-        <v>2023.0</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C60" s="32">
-        <v>94.0</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="33">
-        <v>2022.0</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="44" t="s">
         <v>341</v>
       </c>
       <c r="I60" s="9" t="s">
@@ -5399,28 +5377,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="37">
         <v>102.0</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" s="33">
+      <c r="D61" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="38">
         <v>2019.0</v>
       </c>
-      <c r="F61" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G61" s="33" t="s">
+      <c r="F61" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="44" t="s">
         <v>345</v>
       </c>
       <c r="I61" s="9" t="s">
@@ -5431,60 +5409,60 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="37">
         <v>106.0</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="33">
+      <c r="D62" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="38">
         <v>2012.0</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="41" t="s">
         <v>350</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J62" s="51" t="s">
+      <c r="J62" s="19" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="37">
         <v>96.0</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="38">
         <v>2007.0</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="41" t="s">
         <v>355</v>
       </c>
       <c r="I63" s="9" t="s">
@@ -5495,92 +5473,92 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="37">
         <v>105.0</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="55">
         <v>2020.0</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="G64" s="52" t="s">
+      <c r="G64" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="I64" s="53" t="s">
+      <c r="I64" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="J64" s="54" t="s">
+      <c r="J64" s="57" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="37">
         <v>111.0</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="55">
         <v>2021.0</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" s="52" t="s">
+      <c r="F65" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="I65" s="53" t="s">
+      <c r="I65" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="J65" s="54" t="s">
+      <c r="J65" s="57" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="57">
+      <c r="C66" s="60">
         <v>118.0</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="61">
         <v>1991.0</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G66" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="56" t="s">
+      <c r="H66" s="59" t="s">
         <v>373</v>
       </c>
       <c r="I66" s="9" t="s">
@@ -5591,28 +5569,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="C67" s="57">
+      <c r="C67" s="60">
         <v>78.0</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="E67" s="60">
+      <c r="E67" s="63">
         <v>2007.0</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="H67" s="65" t="s">
         <v>379</v>
       </c>
       <c r="I67" s="9" t="s">
@@ -5623,28 +5601,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="C68" s="57">
+      <c r="C68" s="60">
         <v>110.0</v>
       </c>
-      <c r="D68" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="58">
+      <c r="D68" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E68" s="61">
         <v>2012.0</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G68" s="58" t="s">
+      <c r="G68" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="62" t="s">
+      <c r="H68" s="65" t="s">
         <v>383</v>
       </c>
       <c r="I68" s="9" t="s">
@@ -5655,28 +5633,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="C69" s="57">
+      <c r="C69" s="60">
         <v>146.0</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="63">
+      <c r="E69" s="66">
         <v>1980.0</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G69" s="64" t="s">
+      <c r="G69" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="66" t="s">
         <v>388</v>
       </c>
       <c r="I69" s="9" t="s">
@@ -5687,28 +5665,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="C70" s="57">
+      <c r="C70" s="60">
         <v>96.0</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="61">
         <v>2018.0</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G70" s="64" t="s">
+      <c r="G70" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="H70" s="56" t="s">
+      <c r="H70" s="59" t="s">
         <v>393</v>
       </c>
       <c r="I70" s="9" t="s">
@@ -5719,28 +5697,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="C71" s="57">
+      <c r="C71" s="60">
         <v>122.0</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="61">
         <v>1973.0</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H71" s="56" t="s">
+      <c r="H71" s="59" t="s">
         <v>397</v>
       </c>
       <c r="I71" s="9" t="s">
@@ -5751,28 +5729,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C72" s="60">
         <v>109.0</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E72" s="61">
         <v>1960.0</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="69" t="s">
         <v>403</v>
       </c>
       <c r="I72" s="9" t="s">
@@ -5783,28 +5761,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="C73" s="57">
+      <c r="C73" s="60">
         <v>81.0</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="61">
         <v>2015.0</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="G73" s="65" t="s">
+      <c r="G73" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="H73" s="59" t="s">
         <v>409</v>
       </c>
       <c r="I73" s="9" t="s">
@@ -5815,28 +5793,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="C74" s="57">
+      <c r="C74" s="60">
         <v>85.0</v>
       </c>
-      <c r="D74" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="E74" s="63">
+      <c r="D74" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="66">
         <v>2016.0</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F74" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="H74" s="65" t="s">
         <v>414</v>
       </c>
       <c r="I74" s="9" t="s">
@@ -5847,28 +5825,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="60">
         <v>104.0</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="61">
         <v>2017.0</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="G75" s="64" t="s">
+      <c r="G75" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="H75" s="59" t="s">
         <v>421</v>
       </c>
       <c r="I75" s="9" t="s">
@@ -5879,28 +5857,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="C76" s="57">
+      <c r="C76" s="60">
         <v>109.0</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="58">
+      <c r="E76" s="61">
         <v>2025.0</v>
       </c>
-      <c r="F76" s="59" t="s">
+      <c r="F76" s="62" t="s">
         <v>425</v>
       </c>
-      <c r="G76" s="65" t="s">
+      <c r="G76" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="59" t="s">
         <v>426</v>
       </c>
       <c r="I76" s="9" t="s">
@@ -5911,28 +5889,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="C77" s="57">
+      <c r="C77" s="60">
         <v>117.0</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="61">
         <v>2023.0</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F77" s="62" t="s">
         <v>430</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="H77" s="69" t="s">
         <v>432</v>
       </c>
       <c r="I77" s="9" t="s">
@@ -5943,28 +5921,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="C78" s="57">
+      <c r="C78" s="60">
         <v>102.0</v>
       </c>
-      <c r="D78" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E78" s="58">
+      <c r="D78" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="61">
         <v>2011.0</v>
       </c>
-      <c r="F78" s="59" t="s">
+      <c r="F78" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="G78" s="58" t="s">
+      <c r="G78" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="H78" s="56" t="s">
+      <c r="H78" s="59" t="s">
         <v>438</v>
       </c>
       <c r="I78" s="9" t="s">
@@ -5975,28 +5953,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="C79" s="57">
+      <c r="C79" s="60">
         <v>98.0</v>
       </c>
-      <c r="D79" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="E79" s="58">
+      <c r="D79" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="61">
         <v>2014.0</v>
       </c>
-      <c r="F79" s="59" t="s">
+      <c r="F79" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="G79" s="64" t="s">
+      <c r="G79" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="H79" s="56" t="s">
+      <c r="H79" s="59" t="s">
         <v>443</v>
       </c>
       <c r="I79" s="9" t="s">
@@ -6007,28 +5985,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="C80" s="57">
+      <c r="C80" s="60">
         <v>89.0</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E80" s="61">
         <v>2014.0</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G80" s="64" t="s">
+      <c r="G80" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="H80" s="56" t="s">
+      <c r="H80" s="59" t="s">
         <v>449</v>
       </c>
       <c r="I80" s="9" t="s">
@@ -6039,28 +6017,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="C81" s="57">
+      <c r="C81" s="60">
         <v>83.0</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="61">
         <v>2022.0</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F81" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="56" t="s">
+      <c r="H81" s="59" t="s">
         <v>455</v>
       </c>
       <c r="I81" s="9" t="s">
@@ -6071,60 +6049,60 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="60">
         <v>102.0</v>
       </c>
-      <c r="D82" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E82" s="58">
+      <c r="D82" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="61">
         <v>2022.0</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F82" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="G82" s="63" t="s">
+      <c r="G82" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="56" t="s">
+      <c r="H82" s="69" t="s">
         <v>460</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="J82" s="66" t="s">
+      <c r="J82" s="28" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="C83" s="57">
+      <c r="C83" s="60">
         <v>117.0</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E83" s="61">
         <v>2016.0</v>
       </c>
-      <c r="F83" s="59" t="s">
+      <c r="F83" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="G83" s="63" t="s">
+      <c r="G83" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="H83" s="56" t="s">
+      <c r="H83" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I83" s="9" t="s">
@@ -6135,28 +6113,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="C84" s="57">
+      <c r="C84" s="60">
         <v>117.0</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="58">
+      <c r="E84" s="61">
         <v>2016.0</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="G84" s="64" t="s">
+      <c r="G84" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="H84" s="56" t="s">
+      <c r="H84" s="69" t="s">
         <v>470</v>
       </c>
       <c r="I84" s="9" t="s">
@@ -6167,28 +6145,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="C85" s="57">
+      <c r="C85" s="60">
         <v>134.0</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="61">
         <v>2024.0</v>
       </c>
-      <c r="F85" s="59" t="s">
+      <c r="F85" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G85" s="63" t="s">
+      <c r="G85" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="H85" s="56" t="s">
+      <c r="H85" s="59" t="s">
         <v>476</v>
       </c>
       <c r="I85" s="9" t="s">
@@ -6199,28 +6177,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="C86" s="57">
+      <c r="C86" s="60">
         <v>111.0</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="61">
         <v>2022.0</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="G86" s="63" t="s">
+      <c r="G86" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="56" t="s">
+      <c r="H86" s="59" t="s">
         <v>480</v>
       </c>
       <c r="I86" s="9" t="s">
@@ -6231,252 +6209,252 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="60">
         <v>103.0</v>
       </c>
-      <c r="D87" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="E87" s="63">
+      <c r="D87" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" s="66">
         <v>2021.0</v>
       </c>
-      <c r="F87" s="59" t="s">
+      <c r="F87" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="G87" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="H87" s="56" t="s">
+      <c r="G87" s="67" t="s">
         <v>485</v>
       </c>
+      <c r="H87" s="59" t="s">
+        <v>486</v>
+      </c>
       <c r="I87" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B88" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="C88" s="57">
+      <c r="B88" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="C88" s="60">
         <v>92.0</v>
       </c>
-      <c r="D88" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="E88" s="63">
+      <c r="D88" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="66">
         <v>2015.0</v>
       </c>
-      <c r="F88" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="G88" s="64" t="s">
+      <c r="F88" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="H88" s="56" t="s">
+      <c r="G88" s="67" t="s">
         <v>491</v>
       </c>
+      <c r="H88" s="59" t="s">
+        <v>492</v>
+      </c>
       <c r="I88" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="C89" s="57">
+      <c r="B89" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" s="60">
         <v>112.0</v>
       </c>
-      <c r="D89" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="E89" s="63">
+      <c r="D89" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="E89" s="66">
         <v>2013.0</v>
       </c>
-      <c r="F89" s="59" t="s">
+      <c r="F89" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="G89" s="63" t="s">
-        <v>496</v>
-      </c>
-      <c r="H89" s="56" t="s">
+      <c r="G89" s="66" t="s">
         <v>497</v>
       </c>
+      <c r="H89" s="59" t="s">
+        <v>498</v>
+      </c>
       <c r="I89" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="C90" s="57">
+      <c r="B90" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" s="60">
         <v>134.0</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E90" s="63">
+      <c r="E90" s="66">
         <v>2016.0</v>
       </c>
-      <c r="F90" s="59" t="s">
-        <v>501</v>
-      </c>
-      <c r="G90" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="H90" s="56" t="s">
+      <c r="F90" s="62" t="s">
         <v>502</v>
       </c>
+      <c r="G90" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="H90" s="59" t="s">
+        <v>503</v>
+      </c>
       <c r="I90" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B91" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="C91" s="57">
+      <c r="B91" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="C91" s="60">
         <v>127.0</v>
       </c>
-      <c r="D91" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="E91" s="63">
+      <c r="D91" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="E91" s="66">
         <v>2018.0</v>
       </c>
-      <c r="F91" s="59" t="s">
+      <c r="F91" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="G91" s="63" t="s">
+      <c r="G91" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="56" t="s">
-        <v>507</v>
+      <c r="H91" s="59" t="s">
+        <v>508</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B92" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="C92" s="57">
+      <c r="B92" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" s="60">
         <v>98.0</v>
       </c>
-      <c r="D92" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="E92" s="63">
+      <c r="D92" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="66">
         <v>1977.0</v>
       </c>
-      <c r="F92" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="G92" s="63" t="s">
+      <c r="F92" s="62" t="s">
+        <v>512</v>
+      </c>
+      <c r="G92" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="56" t="s">
-        <v>512</v>
+      <c r="H92" s="59" t="s">
+        <v>513</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B93" s="56" t="s">
-        <v>515</v>
-      </c>
-      <c r="C93" s="57">
+      <c r="B93" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="C93" s="60">
         <v>91.0</v>
       </c>
-      <c r="D93" s="55" t="s">
-        <v>516</v>
-      </c>
-      <c r="E93" s="63">
+      <c r="D93" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" s="66">
         <v>1984.0</v>
       </c>
-      <c r="F93" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="G93" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="H93" s="56" t="s">
+      <c r="F93" s="62" t="s">
         <v>518</v>
       </c>
+      <c r="G93" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93" s="69" t="s">
+        <v>519</v>
+      </c>
       <c r="I93" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B94" s="67" t="s">
-        <v>521</v>
-      </c>
-      <c r="C94" s="57">
+      <c r="B94" s="69" t="s">
+        <v>522</v>
+      </c>
+      <c r="C94" s="60">
         <v>100.0</v>
       </c>
-      <c r="D94" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="63">
+      <c r="D94" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="66">
         <v>2020.0</v>
       </c>
-      <c r="F94" s="59" t="s">
+      <c r="F94" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="G94" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="H94" s="56" t="s">
+      <c r="G94" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="59" t="s">
         <v>523</v>
       </c>
       <c r="I94" s="9" t="s">
@@ -6487,28 +6465,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="C95" s="57">
+      <c r="C95" s="60">
         <v>147.0</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D95" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="63">
+      <c r="E95" s="66">
         <v>2019.0</v>
       </c>
-      <c r="F95" s="59" t="s">
+      <c r="F95" s="62" t="s">
         <v>528</v>
       </c>
-      <c r="G95" s="63" t="s">
+      <c r="G95" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="56" t="s">
+      <c r="H95" s="59" t="s">
         <v>529</v>
       </c>
       <c r="I95" s="9" t="s">
@@ -6519,92 +6497,92 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="69" t="s">
         <v>532</v>
       </c>
-      <c r="C96" s="57">
+      <c r="C96" s="60">
         <v>98.0</v>
       </c>
-      <c r="D96" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="E96" s="68">
+      <c r="D96" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" s="70">
         <v>2020.0</v>
       </c>
-      <c r="F96" s="59" t="s">
+      <c r="F96" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="G96" s="68" t="s">
+      <c r="G96" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="67" t="s">
+      <c r="H96" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="I96" s="69" t="s">
+      <c r="I96" s="71" t="s">
         <v>535</v>
       </c>
-      <c r="J96" s="69" t="s">
+      <c r="J96" s="72" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="C97" s="57">
+      <c r="C97" s="60">
         <v>100.0</v>
       </c>
-      <c r="D97" s="57" t="s">
+      <c r="D97" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="E97" s="68">
+      <c r="E97" s="70">
         <v>2017.0</v>
       </c>
-      <c r="F97" s="59" t="s">
+      <c r="F97" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="G97" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="H97" s="67" t="s">
+      <c r="G97" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="H97" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="I97" s="69" t="s">
+      <c r="I97" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="J97" s="69" t="s">
+      <c r="J97" s="71" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C98" s="48">
         <v>128.0</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="E98" s="70">
+      <c r="E98" s="73">
         <v>2005.0</v>
       </c>
-      <c r="F98" s="46" t="s">
+      <c r="F98" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="H98" s="48" t="s">
+      <c r="H98" s="53" t="s">
         <v>546</v>
       </c>
       <c r="I98" s="9" t="s">
@@ -6615,700 +6593,700 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="C99" s="43">
+      <c r="C99" s="48">
         <v>116.0</v>
       </c>
-      <c r="D99" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" s="45">
+      <c r="D99" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" s="50">
         <v>2003.0</v>
       </c>
-      <c r="F99" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G99" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="H99" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="I99" s="49" t="s">
+      <c r="F99" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G99" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="H99" s="53" t="s">
         <v>270</v>
       </c>
+      <c r="I99" s="54" t="s">
+        <v>271</v>
+      </c>
       <c r="J99" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B100" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="C100" s="43">
+      <c r="B100" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="C100" s="48">
         <v>97.0</v>
       </c>
-      <c r="D100" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" s="70">
+      <c r="D100" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="73">
         <v>1999.0</v>
       </c>
-      <c r="F100" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G100" s="70" t="s">
+      <c r="F100" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="70" t="s">
-        <v>551</v>
+      <c r="H100" s="73" t="s">
+        <v>552</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="43" t="s">
+      <c r="A101" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B101" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="C101" s="43">
+      <c r="B101" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C101" s="48">
         <v>99.0</v>
       </c>
-      <c r="D101" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="E101" s="70">
+      <c r="D101" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="73">
         <v>2004.0</v>
       </c>
-      <c r="F101" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G101" s="71" t="s">
-        <v>555</v>
-      </c>
-      <c r="H101" s="48" t="s">
+      <c r="F101" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="74" t="s">
         <v>556</v>
       </c>
+      <c r="H101" s="53" t="s">
+        <v>557</v>
+      </c>
       <c r="I101" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B102" s="48" t="s">
-        <v>559</v>
-      </c>
-      <c r="C102" s="43">
+      <c r="B102" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="C102" s="48">
         <v>111.0</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="E102" s="70">
+      <c r="E102" s="73">
         <v>2008.0</v>
       </c>
-      <c r="F102" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G102" s="70" t="s">
+      <c r="F102" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G102" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H102" s="48" t="s">
-        <v>560</v>
+      <c r="H102" s="53" t="s">
+        <v>561</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B103" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="C103" s="43">
+      <c r="B103" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="C103" s="48">
         <v>123.0</v>
       </c>
-      <c r="D103" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="E103" s="70">
+      <c r="D103" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="E103" s="73">
         <v>2017.0</v>
       </c>
-      <c r="F103" s="46" t="s">
+      <c r="F103" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="G103" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="H103" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" s="48">
+        <v>103.0</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="73">
+        <v>2023.0</v>
+      </c>
+      <c r="F104" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="H104" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="C105" s="48">
+        <v>112.0</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="E105" s="73">
+        <v>2014.0</v>
+      </c>
+      <c r="F105" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="G105" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" s="73" t="s">
+        <v>578</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="C106" s="48">
+        <v>119.0</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="73">
+        <v>1990.0</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" s="73" t="s">
+        <v>582</v>
+      </c>
+      <c r="H106" s="73" t="s">
+        <v>583</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="C107" s="48">
+        <v>121.0</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="E107" s="50">
+        <v>2004.0</v>
+      </c>
+      <c r="F107" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G107" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="C108" s="48">
+        <v>124.0</v>
+      </c>
+      <c r="D108" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="E108" s="50">
+        <v>2022.0</v>
+      </c>
+      <c r="F108" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="G108" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="C109" s="48">
+        <v>121.0</v>
+      </c>
+      <c r="D109" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="E109" s="50">
+        <v>2025.0</v>
+      </c>
+      <c r="F109" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="G109" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="J109" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="C110" s="48">
+        <v>101.0</v>
+      </c>
+      <c r="D110" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E110" s="50">
+        <v>2021.0</v>
+      </c>
+      <c r="F110" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="G110" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="C111" s="48">
+        <v>96.0</v>
+      </c>
+      <c r="D111" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="50">
+        <v>2004.0</v>
+      </c>
+      <c r="F111" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="H111" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>611</v>
+      </c>
+      <c r="C112" s="48">
+        <v>102.0</v>
+      </c>
+      <c r="D112" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="50">
+        <v>2021.0</v>
+      </c>
+      <c r="F112" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="C113" s="48">
+        <v>105.0</v>
+      </c>
+      <c r="D113" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113" s="50">
+        <v>2010.0</v>
+      </c>
+      <c r="F113" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>616</v>
+      </c>
+      <c r="H113" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>620</v>
+      </c>
+      <c r="C114" s="48">
+        <v>107.0</v>
+      </c>
+      <c r="D114" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="50">
+        <v>2007.0</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="C115" s="48">
+        <v>115.0</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="E115" s="50">
+        <v>2001.0</v>
+      </c>
+      <c r="F115" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G115" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" s="53" t="s">
+        <v>626</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="C116" s="48">
+        <v>123.0</v>
+      </c>
+      <c r="D116" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="G103" s="70" t="s">
-        <v>566</v>
-      </c>
-      <c r="H103" s="48" t="s">
-        <v>567</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="43" t="s">
+      <c r="E116" s="50">
+        <v>2004.0</v>
+      </c>
+      <c r="F116" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="G116" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B104" s="48" t="s">
-        <v>570</v>
-      </c>
-      <c r="C104" s="43">
-        <v>103.0</v>
-      </c>
-      <c r="D104" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E104" s="70">
-        <v>2023.0</v>
-      </c>
-      <c r="F104" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G104" s="70" t="s">
-        <v>571</v>
-      </c>
-      <c r="H104" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="43" t="s">
+      <c r="B117" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="C117" s="48">
+        <v>123.0</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="E117" s="50">
+        <v>2013.0</v>
+      </c>
+      <c r="F117" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="G117" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B105" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="C105" s="43">
-        <v>112.0</v>
-      </c>
-      <c r="D105" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="E105" s="70">
+      <c r="B118" s="53" t="s">
+        <v>636</v>
+      </c>
+      <c r="C118" s="48">
+        <v>102.0</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="73">
         <v>2014.0</v>
       </c>
-      <c r="F105" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="G105" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="H105" s="70" t="s">
-        <v>577</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="43" t="s">
+      <c r="F118" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="H118" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B106" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="C106" s="43">
-        <v>119.0</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="E106" s="70">
-        <v>1990.0</v>
-      </c>
-      <c r="F106" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" s="70" t="s">
-        <v>581</v>
-      </c>
-      <c r="H106" s="70" t="s">
-        <v>582</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B107" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="C107" s="43">
-        <v>121.0</v>
-      </c>
-      <c r="D107" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="E107" s="45">
-        <v>2004.0</v>
-      </c>
-      <c r="F107" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="H107" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B108" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="C108" s="43">
-        <v>124.0</v>
-      </c>
-      <c r="D108" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="E108" s="45">
-        <v>2022.0</v>
-      </c>
-      <c r="F108" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="G108" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108" s="48" t="s">
-        <v>594</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B109" s="48" t="s">
-        <v>597</v>
-      </c>
-      <c r="C109" s="43">
-        <v>121.0</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="E109" s="45">
-        <v>2025.0</v>
-      </c>
-      <c r="F109" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="G109" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>598</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="J109" s="66" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>601</v>
-      </c>
-      <c r="C110" s="43">
-        <v>101.0</v>
-      </c>
-      <c r="D110" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E110" s="45">
-        <v>2021.0</v>
-      </c>
-      <c r="F110" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="G110" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H110" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="C111" s="43">
-        <v>96.0</v>
-      </c>
-      <c r="D111" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111" s="45">
-        <v>2004.0</v>
-      </c>
-      <c r="F111" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G111" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="H111" s="48" t="s">
-        <v>607</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="C112" s="43">
-        <v>102.0</v>
-      </c>
-      <c r="D112" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E112" s="45">
-        <v>2021.0</v>
-      </c>
-      <c r="F112" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G112" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>614</v>
-      </c>
-      <c r="C113" s="43">
-        <v>105.0</v>
-      </c>
-      <c r="D113" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="E113" s="45">
-        <v>2010.0</v>
-      </c>
-      <c r="F113" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" s="48" t="s">
-        <v>615</v>
-      </c>
-      <c r="H113" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B114" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="C114" s="43">
-        <v>107.0</v>
-      </c>
-      <c r="D114" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E114" s="45">
-        <v>2007.0</v>
-      </c>
-      <c r="F114" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G114" s="48" t="s">
+      <c r="B119" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="C119" s="48">
+        <v>195.0</v>
+      </c>
+      <c r="D119" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="73">
+        <v>1997.0</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G119" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H114" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B115" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="C115" s="43">
-        <v>115.0</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="E115" s="45">
-        <v>2001.0</v>
-      </c>
-      <c r="F115" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="H115" s="48" t="s">
-        <v>625</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B116" s="48" t="s">
-        <v>628</v>
-      </c>
-      <c r="C116" s="43">
-        <v>123.0</v>
-      </c>
-      <c r="D116" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="E116" s="45">
-        <v>2004.0</v>
-      </c>
-      <c r="F116" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="G116" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" s="48" t="s">
-        <v>629</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="C117" s="43">
-        <v>123.0</v>
-      </c>
-      <c r="D117" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="E117" s="45">
-        <v>2013.0</v>
-      </c>
-      <c r="F117" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="G117" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="48" t="s">
-        <v>632</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>635</v>
-      </c>
-      <c r="C118" s="43">
-        <v>102.0</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E118" s="70">
-        <v>2014.0</v>
-      </c>
-      <c r="F118" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G118" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="H118" s="48" t="s">
-        <v>637</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="B119" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="C119" s="43">
-        <v>195.0</v>
-      </c>
-      <c r="D119" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="70">
-        <v>1997.0</v>
-      </c>
-      <c r="F119" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G119" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H119" s="48" t="s">
-        <v>179</v>
+      <c r="H119" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>641</v>
+        <v>181</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="53" t="s">
         <v>643</v>
       </c>
-      <c r="C120" s="43">
+      <c r="C120" s="48">
         <v>132.0</v>
       </c>
-      <c r="D120" s="44" t="s">
+      <c r="D120" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="70">
+      <c r="E120" s="73">
         <v>2017.0</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="G120" s="70" t="s">
+      <c r="G120" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="48" t="s">
+      <c r="H120" s="53" t="s">
         <v>645</v>
       </c>
       <c r="I120" s="9" t="s">
@@ -7319,28 +7297,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="53" t="s">
         <v>648</v>
       </c>
-      <c r="C121" s="43">
+      <c r="C121" s="48">
         <v>131.0</v>
       </c>
-      <c r="D121" s="44" t="s">
+      <c r="D121" s="49" t="s">
         <v>649</v>
       </c>
-      <c r="E121" s="70">
+      <c r="E121" s="73">
         <v>2024.0</v>
       </c>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="51" t="s">
         <v>650</v>
       </c>
-      <c r="G121" s="70" t="s">
+      <c r="G121" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H121" s="48" t="s">
+      <c r="H121" s="52" t="s">
         <v>651</v>
       </c>
       <c r="I121" s="9" t="s">
@@ -7351,28 +7329,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="53" t="s">
         <v>654</v>
       </c>
-      <c r="C122" s="43">
+      <c r="C122" s="48">
         <v>99.0</v>
       </c>
-      <c r="D122" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="E122" s="70">
+      <c r="D122" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E122" s="73">
         <v>2018.0</v>
       </c>
-      <c r="F122" s="46" t="s">
+      <c r="F122" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G122" s="70" t="s">
+      <c r="G122" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="48" t="s">
+      <c r="H122" s="53" t="s">
         <v>655</v>
       </c>
       <c r="I122" s="9" t="s">
@@ -7383,28 +7361,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="C123" s="43">
+      <c r="C123" s="48">
         <v>95.0</v>
       </c>
-      <c r="D123" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="70">
+      <c r="D123" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="73">
         <v>2009.0</v>
       </c>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="G123" s="70" t="s">
+      <c r="G123" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="H123" s="48" t="s">
+      <c r="H123" s="53" t="s">
         <v>661</v>
       </c>
       <c r="I123" s="9" t="s">
@@ -7415,28 +7393,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="53" t="s">
         <v>664</v>
       </c>
-      <c r="C124" s="43">
+      <c r="C124" s="48">
         <v>119.0</v>
       </c>
-      <c r="D124" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="E124" s="70">
+      <c r="D124" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="73">
         <v>2015.0</v>
       </c>
-      <c r="F124" s="46" t="s">
+      <c r="F124" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="G124" s="70" t="s">
+      <c r="G124" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H124" s="48" t="s">
+      <c r="H124" s="53" t="s">
         <v>666</v>
       </c>
       <c r="I124" s="9" t="s">
@@ -7447,28 +7425,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="53" t="s">
         <v>669</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="D125" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E125" s="70">
+      <c r="E125" s="73">
         <v>2013.0</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="G125" s="70" t="s">
+      <c r="G125" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="H125" s="48" t="s">
+      <c r="H125" s="53" t="s">
         <v>671</v>
       </c>
       <c r="I125" s="9" t="s">
@@ -7479,1050 +7457,1050 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="43" t="s">
+      <c r="A126" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="53" t="s">
         <v>674</v>
       </c>
-      <c r="C126" s="44" t="s">
+      <c r="C126" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="D126" s="44" t="s">
+      <c r="D126" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="E126" s="70">
+      <c r="E126" s="73">
         <v>2016.0</v>
       </c>
-      <c r="F126" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G126" s="70" t="s">
+      <c r="F126" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G126" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="48" t="s">
-        <v>147</v>
+      <c r="H126" s="53" t="s">
+        <v>675</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B127" s="48" t="s">
-        <v>675</v>
-      </c>
-      <c r="C127" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D127" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E127" s="70">
+      <c r="B127" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E127" s="73">
         <v>2012.0</v>
       </c>
-      <c r="F127" s="46" t="s">
-        <v>676</v>
-      </c>
-      <c r="G127" s="70" t="s">
+      <c r="F127" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="G127" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="48" t="s">
-        <v>677</v>
+      <c r="H127" s="53" t="s">
+        <v>678</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B128" s="73" t="s">
+      <c r="A128" s="75" t="s">
         <v>681</v>
       </c>
-      <c r="C128" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="E128" s="74">
+      <c r="B128" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="C128" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128" s="77">
         <v>1997.0</v>
       </c>
-      <c r="F128" s="75" t="s">
-        <v>682</v>
-      </c>
-      <c r="G128" s="73" t="s">
+      <c r="F128" s="78" t="s">
         <v>683</v>
       </c>
-      <c r="H128" s="73" t="s">
+      <c r="G128" s="76" t="s">
         <v>684</v>
       </c>
+      <c r="H128" s="76" t="s">
+        <v>685</v>
+      </c>
       <c r="I128" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B129" s="73" t="s">
-        <v>687</v>
-      </c>
-      <c r="C129" s="73" t="s">
+      <c r="A129" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B129" s="76" t="s">
+        <v>688</v>
+      </c>
+      <c r="C129" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="73" t="s">
+      <c r="D129" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E129" s="74">
+      <c r="E129" s="77">
         <v>2013.0</v>
       </c>
-      <c r="F129" s="75" t="s">
+      <c r="F129" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G129" s="73" t="s">
-        <v>688</v>
-      </c>
-      <c r="H129" s="73" t="s">
+      <c r="G129" s="76" t="s">
         <v>689</v>
       </c>
+      <c r="H129" s="76" t="s">
+        <v>690</v>
+      </c>
       <c r="I129" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="M129" s="76"/>
-      <c r="N129" s="76"/>
-      <c r="O129" s="77"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="76"/>
-      <c r="R129" s="76"/>
-      <c r="S129" s="78"/>
-      <c r="T129" s="78"/>
-      <c r="U129" s="79"/>
-      <c r="V129" s="78"/>
-      <c r="W129" s="78"/>
-      <c r="X129" s="78"/>
-      <c r="Y129" s="78"/>
-      <c r="Z129" s="78"/>
-      <c r="AA129" s="78"/>
-      <c r="AB129" s="78"/>
+        <v>692</v>
+      </c>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="79"/>
+      <c r="Q129" s="79"/>
+      <c r="R129" s="79"/>
+      <c r="S129" s="81"/>
+      <c r="T129" s="81"/>
+      <c r="U129" s="82"/>
+      <c r="V129" s="81"/>
+      <c r="W129" s="81"/>
+      <c r="X129" s="81"/>
+      <c r="Y129" s="81"/>
+      <c r="Z129" s="81"/>
+      <c r="AA129" s="81"/>
+      <c r="AB129" s="81"/>
     </row>
     <row r="130">
-      <c r="A130" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B130" s="73" t="s">
-        <v>692</v>
-      </c>
-      <c r="C130" s="73" t="s">
+      <c r="A130" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B130" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="C130" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D130" s="73" t="s">
+      <c r="D130" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E130" s="74">
+      <c r="E130" s="77">
         <v>2005.0</v>
       </c>
-      <c r="F130" s="75" t="s">
-        <v>693</v>
-      </c>
-      <c r="G130" s="73" t="s">
-        <v>566</v>
-      </c>
-      <c r="H130" s="73" t="s">
+      <c r="F130" s="78" t="s">
         <v>694</v>
       </c>
+      <c r="G130" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="H130" s="76" t="s">
+        <v>695</v>
+      </c>
       <c r="I130" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B131" s="73" t="s">
-        <v>697</v>
-      </c>
-      <c r="C131" s="73" t="s">
-        <v>506</v>
-      </c>
-      <c r="D131" s="73" t="s">
-        <v>506</v>
-      </c>
-      <c r="E131" s="74">
+      <c r="A131" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C131" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="D131" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="E131" s="77">
         <v>2012.0</v>
       </c>
-      <c r="F131" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="G131" s="73" t="s">
+      <c r="F131" s="78" t="s">
+        <v>699</v>
+      </c>
+      <c r="G131" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="H131" s="73" t="s">
-        <v>699</v>
+      <c r="H131" s="76" t="s">
+        <v>700</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>702</v>
-      </c>
-      <c r="C132" s="73" t="s">
+      <c r="A132" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B132" s="76" t="s">
         <v>703</v>
       </c>
-      <c r="D132" s="73" t="s">
-        <v>703</v>
-      </c>
-      <c r="E132" s="74">
+      <c r="C132" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="D132" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="E132" s="77">
         <v>2017.0</v>
       </c>
-      <c r="F132" s="75" t="s">
-        <v>704</v>
-      </c>
-      <c r="G132" s="73" t="s">
+      <c r="F132" s="78" t="s">
+        <v>705</v>
+      </c>
+      <c r="G132" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="H132" s="73" t="s">
-        <v>705</v>
+      <c r="H132" s="76" t="s">
+        <v>706</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B133" s="73" t="s">
-        <v>708</v>
-      </c>
-      <c r="C133" s="73" t="s">
+      <c r="A133" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>709</v>
+      </c>
+      <c r="C133" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="D133" s="73" t="s">
+      <c r="D133" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="E133" s="74">
+      <c r="E133" s="77">
         <v>2013.0</v>
       </c>
-      <c r="F133" s="75" t="s">
-        <v>709</v>
-      </c>
-      <c r="G133" s="73" t="s">
+      <c r="F133" s="78" t="s">
         <v>710</v>
       </c>
-      <c r="H133" s="73" t="s">
+      <c r="G133" s="76" t="s">
         <v>711</v>
       </c>
+      <c r="H133" s="76" t="s">
+        <v>712</v>
+      </c>
       <c r="I133" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B134" s="73" t="s">
-        <v>714</v>
-      </c>
-      <c r="C134" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="D134" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E134" s="74">
+      <c r="A134" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>715</v>
+      </c>
+      <c r="C134" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="77">
         <v>1998.0</v>
       </c>
-      <c r="F134" s="75" t="s">
-        <v>715</v>
-      </c>
-      <c r="G134" s="73" t="s">
+      <c r="F134" s="78" t="s">
         <v>716</v>
       </c>
-      <c r="H134" s="73" t="s">
+      <c r="G134" s="76" t="s">
         <v>717</v>
       </c>
+      <c r="H134" s="76" t="s">
+        <v>718</v>
+      </c>
       <c r="I134" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B135" s="73" t="s">
-        <v>720</v>
-      </c>
-      <c r="C135" s="73" t="s">
+      <c r="A135" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>721</v>
+      </c>
+      <c r="C135" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D135" s="73" t="s">
+      <c r="D135" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="E135" s="74">
+      <c r="E135" s="77">
         <v>2017.0</v>
       </c>
-      <c r="F135" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="G135" s="73" t="s">
+      <c r="F135" s="78" t="s">
+        <v>722</v>
+      </c>
+      <c r="G135" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H135" s="73" t="s">
-        <v>722</v>
+      <c r="H135" s="76" t="s">
+        <v>723</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B136" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="C136" s="73" t="s">
+      <c r="A136" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="C136" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D136" s="73" t="s">
+      <c r="D136" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E136" s="80">
+      <c r="E136" s="83">
         <v>2019.0</v>
       </c>
-      <c r="F136" s="81" t="s">
+      <c r="F136" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="G136" s="80" t="s">
-        <v>726</v>
-      </c>
-      <c r="H136" s="73" t="s">
+      <c r="G136" s="83" t="s">
         <v>727</v>
       </c>
+      <c r="H136" s="76" t="s">
+        <v>728</v>
+      </c>
       <c r="I136" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B137" s="73" t="s">
-        <v>730</v>
-      </c>
-      <c r="C137" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="D137" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="E137" s="80">
+      <c r="A137" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B137" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="C137" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="E137" s="83">
         <v>2000.0</v>
       </c>
-      <c r="F137" s="81" t="s">
-        <v>731</v>
-      </c>
-      <c r="G137" s="80" t="s">
+      <c r="F137" s="84" t="s">
+        <v>732</v>
+      </c>
+      <c r="G137" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H137" s="73" t="s">
-        <v>732</v>
+      <c r="H137" s="85" t="s">
+        <v>733</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B138" s="73" t="s">
-        <v>735</v>
-      </c>
-      <c r="C138" s="73" t="s">
+      <c r="A138" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B138" s="76" t="s">
+        <v>736</v>
+      </c>
+      <c r="C138" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="D138" s="73" t="s">
+      <c r="D138" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="E138" s="80">
+      <c r="E138" s="83">
         <v>2010.0</v>
       </c>
-      <c r="F138" s="81" t="s">
-        <v>736</v>
-      </c>
-      <c r="G138" s="80" t="s">
+      <c r="F138" s="84" t="s">
         <v>737</v>
       </c>
-      <c r="H138" s="73" t="s">
+      <c r="G138" s="83" t="s">
         <v>738</v>
       </c>
+      <c r="H138" s="76" t="s">
+        <v>739</v>
+      </c>
       <c r="I138" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B139" s="73" t="s">
-        <v>741</v>
-      </c>
-      <c r="C139" s="73" t="s">
+      <c r="A139" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B139" s="76" t="s">
         <v>742</v>
       </c>
-      <c r="D139" s="73" t="s">
-        <v>742</v>
-      </c>
-      <c r="E139" s="80">
+      <c r="C139" s="76" t="s">
+        <v>743</v>
+      </c>
+      <c r="D139" s="76" t="s">
+        <v>743</v>
+      </c>
+      <c r="E139" s="83">
         <v>1976.0</v>
       </c>
-      <c r="F139" s="81" t="s">
-        <v>743</v>
-      </c>
-      <c r="G139" s="80" t="s">
+      <c r="F139" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="G139" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H139" s="73" t="s">
+      <c r="H139" s="76" t="s">
+        <v>745</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>748</v>
+      </c>
+      <c r="C140" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D140" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="83">
+        <v>1997.0</v>
+      </c>
+      <c r="F140" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" s="83" t="s">
+        <v>749</v>
+      </c>
+      <c r="H140" s="76" t="s">
+        <v>750</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B141" s="76" t="s">
+        <v>753</v>
+      </c>
+      <c r="C141" s="76" t="s">
+        <v>754</v>
+      </c>
+      <c r="D141" s="76" t="s">
+        <v>754</v>
+      </c>
+      <c r="E141" s="83">
+        <v>1994.0</v>
+      </c>
+      <c r="F141" s="84" t="s">
+        <v>755</v>
+      </c>
+      <c r="G141" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="76" t="s">
+        <v>756</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B142" s="85" t="s">
+        <v>759</v>
+      </c>
+      <c r="C142" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="87">
+        <v>2018.0</v>
+      </c>
+      <c r="F142" s="84" t="s">
+        <v>760</v>
+      </c>
+      <c r="G142" s="87" t="s">
+        <v>761</v>
+      </c>
+      <c r="H142" s="85" t="s">
+        <v>762</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B143" s="76" t="s">
+        <v>765</v>
+      </c>
+      <c r="C143" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="83">
+        <v>2004.0</v>
+      </c>
+      <c r="F143" s="84" t="s">
+        <v>766</v>
+      </c>
+      <c r="G143" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H143" s="76" t="s">
+        <v>767</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B144" s="76" t="s">
+        <v>770</v>
+      </c>
+      <c r="C144" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="83">
+        <v>1993.0</v>
+      </c>
+      <c r="F144" s="84" t="s">
+        <v>771</v>
+      </c>
+      <c r="G144" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="H144" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B145" s="76" t="s">
+        <v>776</v>
+      </c>
+      <c r="C145" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="83">
+        <v>2001.0</v>
+      </c>
+      <c r="F145" s="84" t="s">
+        <v>737</v>
+      </c>
+      <c r="G145" s="83" t="s">
+        <v>431</v>
+      </c>
+      <c r="H145" s="76" t="s">
+        <v>777</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>780</v>
+      </c>
+      <c r="C146" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="D146" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="83">
+        <v>2000.0</v>
+      </c>
+      <c r="F146" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="76" t="s">
+        <v>781</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>784</v>
+      </c>
+      <c r="C147" s="76" t="s">
+        <v>785</v>
+      </c>
+      <c r="D147" s="76" t="s">
+        <v>785</v>
+      </c>
+      <c r="E147" s="83">
+        <v>2002.0</v>
+      </c>
+      <c r="F147" s="84" t="s">
+        <v>786</v>
+      </c>
+      <c r="G147" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H147" s="76" t="s">
+        <v>787</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B148" s="76" t="s">
+        <v>790</v>
+      </c>
+      <c r="C148" s="76" t="s">
+        <v>791</v>
+      </c>
+      <c r="D148" s="76" t="s">
+        <v>791</v>
+      </c>
+      <c r="E148" s="83">
+        <v>2003.0</v>
+      </c>
+      <c r="F148" s="84" t="s">
         <v>744</v>
       </c>
-      <c r="I139" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B140" s="73" t="s">
-        <v>747</v>
-      </c>
-      <c r="C140" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="D140" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E140" s="80">
-        <v>1997.0</v>
-      </c>
-      <c r="F140" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" s="80" t="s">
-        <v>748</v>
-      </c>
-      <c r="H140" s="73" t="s">
-        <v>749</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B141" s="73" t="s">
-        <v>752</v>
-      </c>
-      <c r="C141" s="73" t="s">
-        <v>753</v>
-      </c>
-      <c r="D141" s="73" t="s">
-        <v>753</v>
-      </c>
-      <c r="E141" s="80">
-        <v>1994.0</v>
-      </c>
-      <c r="F141" s="81" t="s">
-        <v>754</v>
-      </c>
-      <c r="G141" s="80" t="s">
+      <c r="G148" s="83" t="s">
+        <v>792</v>
+      </c>
+      <c r="H148" s="76" t="s">
+        <v>793</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B149" s="76" t="s">
+        <v>796</v>
+      </c>
+      <c r="C149" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="83">
+        <v>2006.0</v>
+      </c>
+      <c r="F149" s="84" t="s">
+        <v>797</v>
+      </c>
+      <c r="G149" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="73" t="s">
-        <v>755</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B142" s="82" t="s">
-        <v>758</v>
-      </c>
-      <c r="C142" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D142" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" s="84">
-        <v>2018.0</v>
-      </c>
-      <c r="F142" s="81" t="s">
-        <v>759</v>
-      </c>
-      <c r="G142" s="84" t="s">
-        <v>760</v>
-      </c>
-      <c r="H142" s="82" t="s">
-        <v>761</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B143" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="C143" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E143" s="80">
-        <v>2004.0</v>
-      </c>
-      <c r="F143" s="81" t="s">
-        <v>765</v>
-      </c>
-      <c r="G143" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="H143" s="73" t="s">
-        <v>766</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B144" s="73" t="s">
-        <v>769</v>
-      </c>
-      <c r="C144" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="D144" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="E144" s="80">
-        <v>1993.0</v>
-      </c>
-      <c r="F144" s="81" t="s">
-        <v>770</v>
-      </c>
-      <c r="G144" s="80" t="s">
-        <v>771</v>
-      </c>
-      <c r="H144" s="73" t="s">
-        <v>772</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B145" s="73" t="s">
-        <v>775</v>
-      </c>
-      <c r="C145" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D145" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E145" s="80">
-        <v>2001.0</v>
-      </c>
-      <c r="F145" s="81" t="s">
-        <v>736</v>
-      </c>
-      <c r="G145" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="H145" s="73" t="s">
-        <v>776</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B146" s="73" t="s">
-        <v>779</v>
-      </c>
-      <c r="C146" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="D146" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="E146" s="80">
-        <v>2000.0</v>
-      </c>
-      <c r="F146" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="73" t="s">
-        <v>780</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B147" s="73" t="s">
-        <v>783</v>
-      </c>
-      <c r="C147" s="73" t="s">
-        <v>784</v>
-      </c>
-      <c r="D147" s="73" t="s">
-        <v>784</v>
-      </c>
-      <c r="E147" s="80">
-        <v>2002.0</v>
-      </c>
-      <c r="F147" s="81" t="s">
-        <v>785</v>
-      </c>
-      <c r="G147" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="H147" s="73" t="s">
-        <v>786</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B148" s="73" t="s">
-        <v>789</v>
-      </c>
-      <c r="C148" s="73" t="s">
-        <v>790</v>
-      </c>
-      <c r="D148" s="73" t="s">
-        <v>790</v>
-      </c>
-      <c r="E148" s="80">
-        <v>2003.0</v>
-      </c>
-      <c r="F148" s="81" t="s">
-        <v>743</v>
-      </c>
-      <c r="G148" s="80" t="s">
-        <v>791</v>
-      </c>
-      <c r="H148" s="73" t="s">
-        <v>792</v>
-      </c>
-      <c r="I148" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B149" s="73" t="s">
-        <v>795</v>
-      </c>
-      <c r="C149" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="80">
-        <v>2006.0</v>
-      </c>
-      <c r="F149" s="81" t="s">
-        <v>796</v>
-      </c>
-      <c r="G149" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="73" t="s">
-        <v>797</v>
+      <c r="H149" s="76" t="s">
+        <v>798</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B150" s="73" t="s">
-        <v>799</v>
-      </c>
-      <c r="C150" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="D150" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="E150" s="80">
+      <c r="A150" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B150" s="76" t="s">
+        <v>800</v>
+      </c>
+      <c r="C150" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="E150" s="83">
         <v>2020.0</v>
       </c>
-      <c r="F150" s="81" t="s">
-        <v>800</v>
-      </c>
-      <c r="G150" s="80" t="s">
+      <c r="F150" s="84" t="s">
+        <v>801</v>
+      </c>
+      <c r="G150" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H150" s="73" t="s">
-        <v>801</v>
+      <c r="H150" s="76" t="s">
+        <v>802</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B151" s="73" t="s">
-        <v>804</v>
-      </c>
-      <c r="C151" s="73" t="s">
-        <v>564</v>
-      </c>
-      <c r="D151" s="73" t="s">
-        <v>564</v>
-      </c>
-      <c r="E151" s="80">
+      <c r="A151" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B151" s="76" t="s">
+        <v>805</v>
+      </c>
+      <c r="C151" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D151" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="E151" s="83">
         <v>2014.0</v>
       </c>
-      <c r="F151" s="81" t="s">
-        <v>796</v>
-      </c>
-      <c r="G151" s="80" t="s">
+      <c r="F151" s="84" t="s">
+        <v>797</v>
+      </c>
+      <c r="G151" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="73" t="s">
-        <v>805</v>
+      <c r="H151" s="76" t="s">
+        <v>806</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B152" s="82" t="s">
-        <v>808</v>
-      </c>
-      <c r="C152" s="83" t="s">
-        <v>586</v>
-      </c>
-      <c r="D152" s="82" t="s">
-        <v>586</v>
-      </c>
-      <c r="E152" s="84">
+      <c r="A152" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B152" s="85" t="s">
+        <v>809</v>
+      </c>
+      <c r="C152" s="86" t="s">
+        <v>587</v>
+      </c>
+      <c r="D152" s="85" t="s">
+        <v>587</v>
+      </c>
+      <c r="E152" s="87">
         <v>2019.0</v>
       </c>
-      <c r="F152" s="81" t="s">
-        <v>759</v>
-      </c>
-      <c r="G152" s="84" t="s">
-        <v>809</v>
-      </c>
-      <c r="H152" s="82" t="s">
+      <c r="F152" s="84" t="s">
+        <v>760</v>
+      </c>
+      <c r="G152" s="87" t="s">
         <v>810</v>
       </c>
+      <c r="H152" s="85" t="s">
+        <v>811</v>
+      </c>
       <c r="I152" s="9" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B153" s="73" t="s">
-        <v>813</v>
-      </c>
-      <c r="C153" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="D153" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="E153" s="80">
+      <c r="A153" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B153" s="76" t="s">
+        <v>814</v>
+      </c>
+      <c r="C153" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="E153" s="83">
         <v>2024.0</v>
       </c>
-      <c r="F153" s="81" t="s">
-        <v>814</v>
-      </c>
-      <c r="G153" s="80" t="s">
+      <c r="F153" s="84" t="s">
+        <v>815</v>
+      </c>
+      <c r="G153" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H153" s="73" t="s">
-        <v>815</v>
+      <c r="H153" s="76" t="s">
+        <v>816</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B154" s="73" t="s">
-        <v>818</v>
-      </c>
-      <c r="C154" s="73" t="s">
+      <c r="A154" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B154" s="76" t="s">
+        <v>819</v>
+      </c>
+      <c r="C154" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D154" s="73" t="s">
+      <c r="D154" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E154" s="80">
+      <c r="E154" s="83">
         <v>2014.0</v>
       </c>
-      <c r="F154" s="81" t="s">
-        <v>759</v>
-      </c>
-      <c r="G154" s="84" t="s">
+      <c r="F154" s="84" t="s">
+        <v>760</v>
+      </c>
+      <c r="G154" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="H154" s="73" t="s">
-        <v>819</v>
+      <c r="H154" s="76" t="s">
+        <v>820</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="J154" s="66" t="s">
         <v>821</v>
       </c>
+      <c r="J154" s="28" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B155" s="73" t="s">
-        <v>822</v>
-      </c>
-      <c r="C155" s="73" t="s">
+      <c r="A155" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B155" s="76" t="s">
+        <v>823</v>
+      </c>
+      <c r="C155" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="D155" s="73" t="s">
+      <c r="D155" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="E155" s="80">
+      <c r="E155" s="83">
         <v>2009.0</v>
       </c>
-      <c r="F155" s="81" t="s">
-        <v>823</v>
-      </c>
-      <c r="G155" s="84" t="s">
+      <c r="F155" s="84" t="s">
+        <v>824</v>
+      </c>
+      <c r="G155" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="H155" s="73" t="s">
-        <v>824</v>
+      <c r="H155" s="76" t="s">
+        <v>825</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B156" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="C156" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="D156" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="84">
+      <c r="A156" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B156" s="85" t="s">
+        <v>828</v>
+      </c>
+      <c r="C156" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E156" s="87">
         <v>2022.0</v>
       </c>
-      <c r="F156" s="81" t="s">
-        <v>828</v>
-      </c>
-      <c r="G156" s="84" t="s">
+      <c r="F156" s="84" t="s">
+        <v>829</v>
+      </c>
+      <c r="G156" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="H156" s="82" t="s">
-        <v>829</v>
+      <c r="H156" s="85" t="s">
+        <v>830</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="B157" s="73" t="s">
-        <v>832</v>
-      </c>
-      <c r="C157" s="73" t="s">
+      <c r="A157" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="B157" s="76" t="s">
         <v>833</v>
       </c>
-      <c r="D157" s="73" t="s">
-        <v>833</v>
-      </c>
-      <c r="E157" s="80">
+      <c r="C157" s="76" t="s">
+        <v>834</v>
+      </c>
+      <c r="D157" s="76" t="s">
+        <v>834</v>
+      </c>
+      <c r="E157" s="83">
         <v>2009.0</v>
       </c>
-      <c r="F157" s="81" t="s">
-        <v>834</v>
-      </c>
-      <c r="G157" s="84" t="s">
+      <c r="F157" s="84" t="s">
+        <v>835</v>
+      </c>
+      <c r="G157" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="H157" s="73" t="s">
-        <v>835</v>
+      <c r="H157" s="76" t="s">
+        <v>836</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="158">
-      <c r="I158" s="85"/>
+      <c r="I158" s="88"/>
     </row>
     <row r="159">
-      <c r="I159" s="85"/>
+      <c r="I159" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8564,280 +8542,281 @@
     <hyperlink r:id="rId36" ref="J19"/>
     <hyperlink r:id="rId37" ref="I20"/>
     <hyperlink r:id="rId38" ref="J20"/>
-    <hyperlink r:id="rId39" ref="J21"/>
-    <hyperlink r:id="rId40" ref="I22"/>
-    <hyperlink r:id="rId41" ref="J22"/>
-    <hyperlink r:id="rId42" ref="I23"/>
-    <hyperlink r:id="rId43" ref="J23"/>
-    <hyperlink r:id="rId44" ref="I24"/>
-    <hyperlink r:id="rId45" ref="J24"/>
-    <hyperlink r:id="rId46" ref="I25"/>
-    <hyperlink r:id="rId47" ref="J25"/>
-    <hyperlink r:id="rId48" ref="I26"/>
-    <hyperlink r:id="rId49" ref="J26"/>
-    <hyperlink r:id="rId50" ref="I27"/>
-    <hyperlink r:id="rId51" ref="J27"/>
-    <hyperlink r:id="rId52" ref="I28"/>
-    <hyperlink r:id="rId53" ref="J28"/>
-    <hyperlink r:id="rId54" ref="I29"/>
-    <hyperlink r:id="rId55" ref="J29"/>
-    <hyperlink r:id="rId56" ref="I30"/>
-    <hyperlink r:id="rId57" ref="J30"/>
-    <hyperlink r:id="rId58" ref="I31"/>
-    <hyperlink r:id="rId59" ref="J31"/>
-    <hyperlink r:id="rId60" ref="I32"/>
-    <hyperlink r:id="rId61" ref="J32"/>
-    <hyperlink r:id="rId62" ref="I33"/>
-    <hyperlink r:id="rId63" ref="J33"/>
-    <hyperlink r:id="rId64" ref="I34"/>
-    <hyperlink r:id="rId65" ref="J34"/>
-    <hyperlink r:id="rId66" ref="I35"/>
-    <hyperlink r:id="rId67" ref="J35"/>
-    <hyperlink r:id="rId68" ref="I36"/>
-    <hyperlink r:id="rId69" ref="J36"/>
-    <hyperlink r:id="rId70" ref="I37"/>
-    <hyperlink r:id="rId71" ref="J37"/>
-    <hyperlink r:id="rId72" ref="I38"/>
-    <hyperlink r:id="rId73" ref="J38"/>
-    <hyperlink r:id="rId74" ref="I39"/>
-    <hyperlink r:id="rId75" ref="J39"/>
-    <hyperlink r:id="rId76" ref="I40"/>
-    <hyperlink r:id="rId77" ref="J40"/>
-    <hyperlink r:id="rId78" ref="I41"/>
-    <hyperlink r:id="rId79" ref="J41"/>
-    <hyperlink r:id="rId80" ref="I42"/>
-    <hyperlink r:id="rId81" ref="J42"/>
-    <hyperlink r:id="rId82" ref="I43"/>
-    <hyperlink r:id="rId83" ref="J43"/>
-    <hyperlink r:id="rId84" ref="I44"/>
-    <hyperlink r:id="rId85" ref="J44"/>
-    <hyperlink r:id="rId86" ref="I45"/>
-    <hyperlink r:id="rId87" ref="J45"/>
-    <hyperlink r:id="rId88" ref="I46"/>
-    <hyperlink r:id="rId89" ref="J46"/>
-    <hyperlink r:id="rId90" ref="I47"/>
-    <hyperlink r:id="rId91" ref="J47"/>
-    <hyperlink r:id="rId92" ref="I48"/>
-    <hyperlink r:id="rId93" ref="J48"/>
-    <hyperlink r:id="rId94" ref="I49"/>
-    <hyperlink r:id="rId95" ref="J49"/>
-    <hyperlink r:id="rId96" ref="I50"/>
-    <hyperlink r:id="rId97" ref="J50"/>
-    <hyperlink r:id="rId98" ref="I51"/>
-    <hyperlink r:id="rId99" ref="J51"/>
-    <hyperlink r:id="rId100" ref="I52"/>
-    <hyperlink r:id="rId101" ref="J52"/>
-    <hyperlink r:id="rId102" ref="I53"/>
-    <hyperlink r:id="rId103" ref="J53"/>
-    <hyperlink r:id="rId104" ref="I54"/>
-    <hyperlink r:id="rId105" ref="J54"/>
-    <hyperlink r:id="rId106" ref="I55"/>
-    <hyperlink r:id="rId107" ref="J55"/>
-    <hyperlink r:id="rId108" ref="I56"/>
-    <hyperlink r:id="rId109" ref="J56"/>
-    <hyperlink r:id="rId110" ref="I57"/>
-    <hyperlink r:id="rId111" ref="J57"/>
-    <hyperlink r:id="rId112" ref="I58"/>
-    <hyperlink r:id="rId113" ref="J58"/>
-    <hyperlink r:id="rId114" ref="I59"/>
-    <hyperlink r:id="rId115" ref="J59"/>
-    <hyperlink r:id="rId116" ref="I60"/>
-    <hyperlink r:id="rId117" ref="J60"/>
-    <hyperlink r:id="rId118" ref="I61"/>
-    <hyperlink r:id="rId119" ref="J61"/>
-    <hyperlink r:id="rId120" ref="I62"/>
-    <hyperlink r:id="rId121" ref="J62"/>
-    <hyperlink r:id="rId122" ref="I63"/>
-    <hyperlink r:id="rId123" ref="J63"/>
-    <hyperlink r:id="rId124" ref="I64"/>
-    <hyperlink r:id="rId125" ref="J64"/>
-    <hyperlink r:id="rId126" ref="I65"/>
-    <hyperlink r:id="rId127" ref="J65"/>
-    <hyperlink r:id="rId128" ref="I66"/>
-    <hyperlink r:id="rId129" ref="J66"/>
-    <hyperlink r:id="rId130" ref="I67"/>
-    <hyperlink r:id="rId131" ref="J67"/>
-    <hyperlink r:id="rId132" ref="I68"/>
-    <hyperlink r:id="rId133" ref="J68"/>
-    <hyperlink r:id="rId134" ref="I69"/>
-    <hyperlink r:id="rId135" ref="J69"/>
-    <hyperlink r:id="rId136" ref="I70"/>
-    <hyperlink r:id="rId137" ref="J70"/>
-    <hyperlink r:id="rId138" ref="I71"/>
-    <hyperlink r:id="rId139" ref="J71"/>
-    <hyperlink r:id="rId140" ref="I72"/>
-    <hyperlink r:id="rId141" ref="J72"/>
-    <hyperlink r:id="rId142" ref="I73"/>
-    <hyperlink r:id="rId143" ref="J73"/>
-    <hyperlink r:id="rId144" ref="I74"/>
-    <hyperlink r:id="rId145" ref="J74"/>
-    <hyperlink r:id="rId146" ref="I75"/>
-    <hyperlink r:id="rId147" ref="J75"/>
-    <hyperlink r:id="rId148" ref="I76"/>
-    <hyperlink r:id="rId149" ref="J76"/>
-    <hyperlink r:id="rId150" ref="I77"/>
-    <hyperlink r:id="rId151" ref="J77"/>
-    <hyperlink r:id="rId152" ref="I78"/>
-    <hyperlink r:id="rId153" ref="J78"/>
-    <hyperlink r:id="rId154" ref="I79"/>
-    <hyperlink r:id="rId155" ref="J79"/>
-    <hyperlink r:id="rId156" ref="I80"/>
-    <hyperlink r:id="rId157" ref="J80"/>
-    <hyperlink r:id="rId158" ref="I81"/>
-    <hyperlink r:id="rId159" ref="J81"/>
-    <hyperlink r:id="rId160" ref="I82"/>
-    <hyperlink r:id="rId161" ref="J82"/>
-    <hyperlink r:id="rId162" ref="I83"/>
-    <hyperlink r:id="rId163" ref="J83"/>
-    <hyperlink r:id="rId164" ref="I84"/>
-    <hyperlink r:id="rId165" ref="J84"/>
-    <hyperlink r:id="rId166" ref="I85"/>
-    <hyperlink r:id="rId167" ref="J85"/>
-    <hyperlink r:id="rId168" ref="I86"/>
-    <hyperlink r:id="rId169" ref="J86"/>
-    <hyperlink r:id="rId170" ref="I87"/>
-    <hyperlink r:id="rId171" ref="J87"/>
-    <hyperlink r:id="rId172" ref="I88"/>
-    <hyperlink r:id="rId173" ref="J88"/>
-    <hyperlink r:id="rId174" ref="I89"/>
-    <hyperlink r:id="rId175" ref="J89"/>
-    <hyperlink r:id="rId176" ref="I90"/>
-    <hyperlink r:id="rId177" ref="J90"/>
-    <hyperlink r:id="rId178" ref="I91"/>
-    <hyperlink r:id="rId179" ref="J91"/>
-    <hyperlink r:id="rId180" ref="I92"/>
-    <hyperlink r:id="rId181" ref="J92"/>
-    <hyperlink r:id="rId182" ref="I93"/>
-    <hyperlink r:id="rId183" ref="J93"/>
-    <hyperlink r:id="rId184" ref="I94"/>
-    <hyperlink r:id="rId185" ref="J94"/>
-    <hyperlink r:id="rId186" ref="I95"/>
-    <hyperlink r:id="rId187" ref="J95"/>
-    <hyperlink r:id="rId188" ref="I96"/>
-    <hyperlink r:id="rId189" ref="J96"/>
-    <hyperlink r:id="rId190" ref="I97"/>
-    <hyperlink r:id="rId191" ref="J97"/>
-    <hyperlink r:id="rId192" ref="I98"/>
-    <hyperlink r:id="rId193" ref="J98"/>
-    <hyperlink r:id="rId194" ref="I99"/>
-    <hyperlink r:id="rId195" ref="J99"/>
-    <hyperlink r:id="rId196" ref="I100"/>
-    <hyperlink r:id="rId197" ref="J100"/>
-    <hyperlink r:id="rId198" ref="I101"/>
-    <hyperlink r:id="rId199" ref="J101"/>
-    <hyperlink r:id="rId200" ref="I102"/>
-    <hyperlink r:id="rId201" ref="J102"/>
-    <hyperlink r:id="rId202" ref="I103"/>
-    <hyperlink r:id="rId203" ref="J103"/>
-    <hyperlink r:id="rId204" ref="I104"/>
-    <hyperlink r:id="rId205" ref="J104"/>
-    <hyperlink r:id="rId206" ref="I105"/>
-    <hyperlink r:id="rId207" ref="J105"/>
-    <hyperlink r:id="rId208" ref="I106"/>
-    <hyperlink r:id="rId209" ref="J106"/>
-    <hyperlink r:id="rId210" ref="I107"/>
-    <hyperlink r:id="rId211" ref="J107"/>
-    <hyperlink r:id="rId212" ref="I108"/>
-    <hyperlink r:id="rId213" ref="J108"/>
-    <hyperlink r:id="rId214" ref="I109"/>
-    <hyperlink r:id="rId215" ref="J109"/>
-    <hyperlink r:id="rId216" ref="I110"/>
-    <hyperlink r:id="rId217" ref="J110"/>
-    <hyperlink r:id="rId218" ref="I111"/>
-    <hyperlink r:id="rId219" ref="J111"/>
-    <hyperlink r:id="rId220" ref="I112"/>
-    <hyperlink r:id="rId221" ref="J112"/>
-    <hyperlink r:id="rId222" ref="I113"/>
-    <hyperlink r:id="rId223" ref="J113"/>
-    <hyperlink r:id="rId224" ref="I114"/>
-    <hyperlink r:id="rId225" ref="J114"/>
-    <hyperlink r:id="rId226" ref="I115"/>
-    <hyperlink r:id="rId227" ref="J115"/>
-    <hyperlink r:id="rId228" ref="I116"/>
-    <hyperlink r:id="rId229" ref="J116"/>
-    <hyperlink r:id="rId230" ref="I117"/>
-    <hyperlink r:id="rId231" ref="J117"/>
-    <hyperlink r:id="rId232" ref="I118"/>
-    <hyperlink r:id="rId233" ref="J118"/>
-    <hyperlink r:id="rId234" ref="I119"/>
-    <hyperlink r:id="rId235" ref="J119"/>
-    <hyperlink r:id="rId236" ref="I120"/>
-    <hyperlink r:id="rId237" ref="J120"/>
-    <hyperlink r:id="rId238" ref="I121"/>
-    <hyperlink r:id="rId239" ref="J121"/>
-    <hyperlink r:id="rId240" ref="I122"/>
-    <hyperlink r:id="rId241" ref="J122"/>
-    <hyperlink r:id="rId242" ref="I123"/>
-    <hyperlink r:id="rId243" ref="J123"/>
-    <hyperlink r:id="rId244" ref="I124"/>
-    <hyperlink r:id="rId245" ref="J124"/>
-    <hyperlink r:id="rId246" ref="I125"/>
-    <hyperlink r:id="rId247" ref="J125"/>
-    <hyperlink r:id="rId248" ref="I126"/>
-    <hyperlink r:id="rId249" ref="J126"/>
-    <hyperlink r:id="rId250" ref="I127"/>
-    <hyperlink r:id="rId251" ref="J127"/>
-    <hyperlink r:id="rId252" ref="I128"/>
-    <hyperlink r:id="rId253" ref="J128"/>
-    <hyperlink r:id="rId254" ref="I129"/>
-    <hyperlink r:id="rId255" ref="J129"/>
-    <hyperlink r:id="rId256" ref="I130"/>
-    <hyperlink r:id="rId257" ref="J130"/>
-    <hyperlink r:id="rId258" ref="I131"/>
-    <hyperlink r:id="rId259" ref="J131"/>
-    <hyperlink r:id="rId260" ref="I132"/>
-    <hyperlink r:id="rId261" ref="J132"/>
-    <hyperlink r:id="rId262" ref="I133"/>
-    <hyperlink r:id="rId263" ref="J133"/>
-    <hyperlink r:id="rId264" ref="I134"/>
-    <hyperlink r:id="rId265" ref="J134"/>
-    <hyperlink r:id="rId266" ref="I135"/>
-    <hyperlink r:id="rId267" ref="J135"/>
-    <hyperlink r:id="rId268" ref="I136"/>
-    <hyperlink r:id="rId269" ref="J136"/>
-    <hyperlink r:id="rId270" ref="I137"/>
-    <hyperlink r:id="rId271" ref="J137"/>
-    <hyperlink r:id="rId272" ref="I138"/>
-    <hyperlink r:id="rId273" ref="J138"/>
-    <hyperlink r:id="rId274" ref="I139"/>
-    <hyperlink r:id="rId275" ref="J139"/>
-    <hyperlink r:id="rId276" ref="I140"/>
-    <hyperlink r:id="rId277" ref="J140"/>
-    <hyperlink r:id="rId278" ref="I141"/>
-    <hyperlink r:id="rId279" ref="J141"/>
-    <hyperlink r:id="rId280" ref="I142"/>
-    <hyperlink r:id="rId281" ref="J142"/>
-    <hyperlink r:id="rId282" ref="I143"/>
-    <hyperlink r:id="rId283" ref="J143"/>
-    <hyperlink r:id="rId284" ref="I144"/>
-    <hyperlink r:id="rId285" ref="J144"/>
-    <hyperlink r:id="rId286" ref="I145"/>
-    <hyperlink r:id="rId287" ref="J145"/>
-    <hyperlink r:id="rId288" ref="I146"/>
-    <hyperlink r:id="rId289" ref="J146"/>
-    <hyperlink r:id="rId290" ref="I147"/>
-    <hyperlink r:id="rId291" ref="J147"/>
-    <hyperlink r:id="rId292" ref="I148"/>
-    <hyperlink r:id="rId293" ref="J148"/>
-    <hyperlink r:id="rId294" ref="I149"/>
-    <hyperlink r:id="rId295" ref="J149"/>
-    <hyperlink r:id="rId296" ref="I150"/>
-    <hyperlink r:id="rId297" ref="J150"/>
-    <hyperlink r:id="rId298" ref="I151"/>
-    <hyperlink r:id="rId299" ref="J151"/>
-    <hyperlink r:id="rId300" ref="I152"/>
-    <hyperlink r:id="rId301" ref="J152"/>
-    <hyperlink r:id="rId302" ref="I153"/>
-    <hyperlink r:id="rId303" ref="J153"/>
-    <hyperlink r:id="rId304" ref="I154"/>
-    <hyperlink r:id="rId305" ref="J154"/>
-    <hyperlink r:id="rId306" ref="I155"/>
-    <hyperlink r:id="rId307" ref="J155"/>
-    <hyperlink r:id="rId308" ref="I156"/>
-    <hyperlink r:id="rId309" ref="J156"/>
-    <hyperlink r:id="rId310" ref="I157"/>
-    <hyperlink r:id="rId311" ref="J157"/>
+    <hyperlink r:id="rId39" ref="I21"/>
+    <hyperlink r:id="rId40" ref="J21"/>
+    <hyperlink r:id="rId41" ref="I22"/>
+    <hyperlink r:id="rId42" ref="J22"/>
+    <hyperlink r:id="rId43" ref="I23"/>
+    <hyperlink r:id="rId44" ref="J23"/>
+    <hyperlink r:id="rId45" ref="I24"/>
+    <hyperlink r:id="rId46" ref="J24"/>
+    <hyperlink r:id="rId47" ref="I25"/>
+    <hyperlink r:id="rId48" ref="J25"/>
+    <hyperlink r:id="rId49" ref="I26"/>
+    <hyperlink r:id="rId50" ref="J26"/>
+    <hyperlink r:id="rId51" ref="I27"/>
+    <hyperlink r:id="rId52" ref="J27"/>
+    <hyperlink r:id="rId53" ref="I28"/>
+    <hyperlink r:id="rId54" ref="J28"/>
+    <hyperlink r:id="rId55" ref="I29"/>
+    <hyperlink r:id="rId56" ref="J29"/>
+    <hyperlink r:id="rId57" ref="I30"/>
+    <hyperlink r:id="rId58" ref="J30"/>
+    <hyperlink r:id="rId59" ref="I31"/>
+    <hyperlink r:id="rId60" ref="J31"/>
+    <hyperlink r:id="rId61" ref="I32"/>
+    <hyperlink r:id="rId62" ref="J32"/>
+    <hyperlink r:id="rId63" ref="I33"/>
+    <hyperlink r:id="rId64" ref="J33"/>
+    <hyperlink r:id="rId65" ref="I34"/>
+    <hyperlink r:id="rId66" ref="J34"/>
+    <hyperlink r:id="rId67" ref="I35"/>
+    <hyperlink r:id="rId68" ref="J35"/>
+    <hyperlink r:id="rId69" ref="I36"/>
+    <hyperlink r:id="rId70" ref="J36"/>
+    <hyperlink r:id="rId71" ref="I37"/>
+    <hyperlink r:id="rId72" ref="J37"/>
+    <hyperlink r:id="rId73" ref="I38"/>
+    <hyperlink r:id="rId74" ref="J38"/>
+    <hyperlink r:id="rId75" ref="I39"/>
+    <hyperlink r:id="rId76" ref="J39"/>
+    <hyperlink r:id="rId77" ref="I40"/>
+    <hyperlink r:id="rId78" ref="J40"/>
+    <hyperlink r:id="rId79" ref="I41"/>
+    <hyperlink r:id="rId80" ref="J41"/>
+    <hyperlink r:id="rId81" ref="I42"/>
+    <hyperlink r:id="rId82" ref="J42"/>
+    <hyperlink r:id="rId83" ref="I43"/>
+    <hyperlink r:id="rId84" ref="J43"/>
+    <hyperlink r:id="rId85" ref="I44"/>
+    <hyperlink r:id="rId86" ref="J44"/>
+    <hyperlink r:id="rId87" ref="I45"/>
+    <hyperlink r:id="rId88" ref="J45"/>
+    <hyperlink r:id="rId89" ref="I46"/>
+    <hyperlink r:id="rId90" ref="J46"/>
+    <hyperlink r:id="rId91" ref="I47"/>
+    <hyperlink r:id="rId92" ref="J47"/>
+    <hyperlink r:id="rId93" ref="I48"/>
+    <hyperlink r:id="rId94" ref="J48"/>
+    <hyperlink r:id="rId95" ref="I49"/>
+    <hyperlink r:id="rId96" ref="J49"/>
+    <hyperlink r:id="rId97" ref="I50"/>
+    <hyperlink r:id="rId98" ref="J50"/>
+    <hyperlink r:id="rId99" ref="I51"/>
+    <hyperlink r:id="rId100" ref="J51"/>
+    <hyperlink r:id="rId101" ref="I52"/>
+    <hyperlink r:id="rId102" ref="J52"/>
+    <hyperlink r:id="rId103" ref="I53"/>
+    <hyperlink r:id="rId104" ref="J53"/>
+    <hyperlink r:id="rId105" ref="I54"/>
+    <hyperlink r:id="rId106" ref="J54"/>
+    <hyperlink r:id="rId107" ref="I55"/>
+    <hyperlink r:id="rId108" ref="J55"/>
+    <hyperlink r:id="rId109" ref="I56"/>
+    <hyperlink r:id="rId110" ref="J56"/>
+    <hyperlink r:id="rId111" ref="I57"/>
+    <hyperlink r:id="rId112" ref="J57"/>
+    <hyperlink r:id="rId113" ref="I58"/>
+    <hyperlink r:id="rId114" ref="J58"/>
+    <hyperlink r:id="rId115" ref="I59"/>
+    <hyperlink r:id="rId116" ref="J59"/>
+    <hyperlink r:id="rId117" ref="I60"/>
+    <hyperlink r:id="rId118" ref="J60"/>
+    <hyperlink r:id="rId119" ref="I61"/>
+    <hyperlink r:id="rId120" ref="J61"/>
+    <hyperlink r:id="rId121" ref="I62"/>
+    <hyperlink r:id="rId122" ref="J62"/>
+    <hyperlink r:id="rId123" ref="I63"/>
+    <hyperlink r:id="rId124" ref="J63"/>
+    <hyperlink r:id="rId125" ref="I64"/>
+    <hyperlink r:id="rId126" ref="J64"/>
+    <hyperlink r:id="rId127" ref="I65"/>
+    <hyperlink r:id="rId128" ref="J65"/>
+    <hyperlink r:id="rId129" ref="I66"/>
+    <hyperlink r:id="rId130" ref="J66"/>
+    <hyperlink r:id="rId131" ref="I67"/>
+    <hyperlink r:id="rId132" ref="J67"/>
+    <hyperlink r:id="rId133" ref="I68"/>
+    <hyperlink r:id="rId134" ref="J68"/>
+    <hyperlink r:id="rId135" ref="I69"/>
+    <hyperlink r:id="rId136" ref="J69"/>
+    <hyperlink r:id="rId137" ref="I70"/>
+    <hyperlink r:id="rId138" ref="J70"/>
+    <hyperlink r:id="rId139" ref="I71"/>
+    <hyperlink r:id="rId140" ref="J71"/>
+    <hyperlink r:id="rId141" ref="I72"/>
+    <hyperlink r:id="rId142" ref="J72"/>
+    <hyperlink r:id="rId143" ref="I73"/>
+    <hyperlink r:id="rId144" ref="J73"/>
+    <hyperlink r:id="rId145" ref="I74"/>
+    <hyperlink r:id="rId146" ref="J74"/>
+    <hyperlink r:id="rId147" ref="I75"/>
+    <hyperlink r:id="rId148" ref="J75"/>
+    <hyperlink r:id="rId149" ref="I76"/>
+    <hyperlink r:id="rId150" ref="J76"/>
+    <hyperlink r:id="rId151" ref="I77"/>
+    <hyperlink r:id="rId152" ref="J77"/>
+    <hyperlink r:id="rId153" ref="I78"/>
+    <hyperlink r:id="rId154" ref="J78"/>
+    <hyperlink r:id="rId155" ref="I79"/>
+    <hyperlink r:id="rId156" ref="J79"/>
+    <hyperlink r:id="rId157" ref="I80"/>
+    <hyperlink r:id="rId158" ref="J80"/>
+    <hyperlink r:id="rId159" ref="I81"/>
+    <hyperlink r:id="rId160" ref="J81"/>
+    <hyperlink r:id="rId161" ref="I82"/>
+    <hyperlink r:id="rId162" ref="J82"/>
+    <hyperlink r:id="rId163" ref="I83"/>
+    <hyperlink r:id="rId164" ref="J83"/>
+    <hyperlink r:id="rId165" ref="I84"/>
+    <hyperlink r:id="rId166" ref="J84"/>
+    <hyperlink r:id="rId167" ref="I85"/>
+    <hyperlink r:id="rId168" ref="J85"/>
+    <hyperlink r:id="rId169" ref="I86"/>
+    <hyperlink r:id="rId170" ref="J86"/>
+    <hyperlink r:id="rId171" ref="I87"/>
+    <hyperlink r:id="rId172" ref="J87"/>
+    <hyperlink r:id="rId173" ref="I88"/>
+    <hyperlink r:id="rId174" ref="J88"/>
+    <hyperlink r:id="rId175" ref="I89"/>
+    <hyperlink r:id="rId176" ref="J89"/>
+    <hyperlink r:id="rId177" ref="I90"/>
+    <hyperlink r:id="rId178" ref="J90"/>
+    <hyperlink r:id="rId179" ref="I91"/>
+    <hyperlink r:id="rId180" ref="J91"/>
+    <hyperlink r:id="rId181" ref="I92"/>
+    <hyperlink r:id="rId182" ref="J92"/>
+    <hyperlink r:id="rId183" ref="I93"/>
+    <hyperlink r:id="rId184" ref="J93"/>
+    <hyperlink r:id="rId185" ref="I94"/>
+    <hyperlink r:id="rId186" ref="J94"/>
+    <hyperlink r:id="rId187" ref="I95"/>
+    <hyperlink r:id="rId188" ref="J95"/>
+    <hyperlink r:id="rId189" ref="I96"/>
+    <hyperlink r:id="rId190" ref="J96"/>
+    <hyperlink r:id="rId191" ref="I97"/>
+    <hyperlink r:id="rId192" ref="J97"/>
+    <hyperlink r:id="rId193" ref="I98"/>
+    <hyperlink r:id="rId194" ref="J98"/>
+    <hyperlink r:id="rId195" ref="I99"/>
+    <hyperlink r:id="rId196" ref="J99"/>
+    <hyperlink r:id="rId197" ref="I100"/>
+    <hyperlink r:id="rId198" ref="J100"/>
+    <hyperlink r:id="rId199" ref="I101"/>
+    <hyperlink r:id="rId200" ref="J101"/>
+    <hyperlink r:id="rId201" ref="I102"/>
+    <hyperlink r:id="rId202" ref="J102"/>
+    <hyperlink r:id="rId203" ref="I103"/>
+    <hyperlink r:id="rId204" ref="J103"/>
+    <hyperlink r:id="rId205" ref="I104"/>
+    <hyperlink r:id="rId206" ref="J104"/>
+    <hyperlink r:id="rId207" ref="I105"/>
+    <hyperlink r:id="rId208" ref="J105"/>
+    <hyperlink r:id="rId209" ref="I106"/>
+    <hyperlink r:id="rId210" ref="J106"/>
+    <hyperlink r:id="rId211" ref="I107"/>
+    <hyperlink r:id="rId212" ref="J107"/>
+    <hyperlink r:id="rId213" ref="I108"/>
+    <hyperlink r:id="rId214" ref="J108"/>
+    <hyperlink r:id="rId215" ref="I109"/>
+    <hyperlink r:id="rId216" ref="J109"/>
+    <hyperlink r:id="rId217" ref="I110"/>
+    <hyperlink r:id="rId218" ref="J110"/>
+    <hyperlink r:id="rId219" ref="I111"/>
+    <hyperlink r:id="rId220" ref="J111"/>
+    <hyperlink r:id="rId221" ref="I112"/>
+    <hyperlink r:id="rId222" ref="J112"/>
+    <hyperlink r:id="rId223" ref="I113"/>
+    <hyperlink r:id="rId224" ref="J113"/>
+    <hyperlink r:id="rId225" ref="I114"/>
+    <hyperlink r:id="rId226" ref="J114"/>
+    <hyperlink r:id="rId227" ref="I115"/>
+    <hyperlink r:id="rId228" ref="J115"/>
+    <hyperlink r:id="rId229" ref="I116"/>
+    <hyperlink r:id="rId230" ref="J116"/>
+    <hyperlink r:id="rId231" ref="I117"/>
+    <hyperlink r:id="rId232" ref="J117"/>
+    <hyperlink r:id="rId233" ref="I118"/>
+    <hyperlink r:id="rId234" ref="J118"/>
+    <hyperlink r:id="rId235" ref="I119"/>
+    <hyperlink r:id="rId236" ref="J119"/>
+    <hyperlink r:id="rId237" ref="I120"/>
+    <hyperlink r:id="rId238" ref="J120"/>
+    <hyperlink r:id="rId239" ref="I121"/>
+    <hyperlink r:id="rId240" ref="J121"/>
+    <hyperlink r:id="rId241" ref="I122"/>
+    <hyperlink r:id="rId242" ref="J122"/>
+    <hyperlink r:id="rId243" ref="I123"/>
+    <hyperlink r:id="rId244" ref="J123"/>
+    <hyperlink r:id="rId245" ref="I124"/>
+    <hyperlink r:id="rId246" ref="J124"/>
+    <hyperlink r:id="rId247" ref="I125"/>
+    <hyperlink r:id="rId248" ref="J125"/>
+    <hyperlink r:id="rId249" ref="I126"/>
+    <hyperlink r:id="rId250" ref="J126"/>
+    <hyperlink r:id="rId251" ref="I127"/>
+    <hyperlink r:id="rId252" ref="J127"/>
+    <hyperlink r:id="rId253" ref="I128"/>
+    <hyperlink r:id="rId254" ref="J128"/>
+    <hyperlink r:id="rId255" ref="I129"/>
+    <hyperlink r:id="rId256" ref="J129"/>
+    <hyperlink r:id="rId257" ref="I130"/>
+    <hyperlink r:id="rId258" ref="J130"/>
+    <hyperlink r:id="rId259" ref="I131"/>
+    <hyperlink r:id="rId260" ref="J131"/>
+    <hyperlink r:id="rId261" ref="I132"/>
+    <hyperlink r:id="rId262" ref="J132"/>
+    <hyperlink r:id="rId263" ref="I133"/>
+    <hyperlink r:id="rId264" ref="J133"/>
+    <hyperlink r:id="rId265" ref="I134"/>
+    <hyperlink r:id="rId266" ref="J134"/>
+    <hyperlink r:id="rId267" ref="I135"/>
+    <hyperlink r:id="rId268" ref="J135"/>
+    <hyperlink r:id="rId269" ref="I136"/>
+    <hyperlink r:id="rId270" ref="J136"/>
+    <hyperlink r:id="rId271" ref="I137"/>
+    <hyperlink r:id="rId272" ref="J137"/>
+    <hyperlink r:id="rId273" ref="I138"/>
+    <hyperlink r:id="rId274" ref="J138"/>
+    <hyperlink r:id="rId275" ref="I139"/>
+    <hyperlink r:id="rId276" ref="J139"/>
+    <hyperlink r:id="rId277" ref="I140"/>
+    <hyperlink r:id="rId278" ref="J140"/>
+    <hyperlink r:id="rId279" ref="I141"/>
+    <hyperlink r:id="rId280" ref="J141"/>
+    <hyperlink r:id="rId281" ref="I142"/>
+    <hyperlink r:id="rId282" ref="J142"/>
+    <hyperlink r:id="rId283" ref="I143"/>
+    <hyperlink r:id="rId284" ref="J143"/>
+    <hyperlink r:id="rId285" ref="I144"/>
+    <hyperlink r:id="rId286" ref="J144"/>
+    <hyperlink r:id="rId287" ref="I145"/>
+    <hyperlink r:id="rId288" ref="J145"/>
+    <hyperlink r:id="rId289" ref="I146"/>
+    <hyperlink r:id="rId290" ref="J146"/>
+    <hyperlink r:id="rId291" ref="I147"/>
+    <hyperlink r:id="rId292" ref="J147"/>
+    <hyperlink r:id="rId293" ref="I148"/>
+    <hyperlink r:id="rId294" ref="J148"/>
+    <hyperlink r:id="rId295" ref="I149"/>
+    <hyperlink r:id="rId296" ref="J149"/>
+    <hyperlink r:id="rId297" ref="I150"/>
+    <hyperlink r:id="rId298" ref="J150"/>
+    <hyperlink r:id="rId299" ref="I151"/>
+    <hyperlink r:id="rId300" ref="J151"/>
+    <hyperlink r:id="rId301" ref="I152"/>
+    <hyperlink r:id="rId302" ref="J152"/>
+    <hyperlink r:id="rId303" ref="I153"/>
+    <hyperlink r:id="rId304" ref="J153"/>
+    <hyperlink r:id="rId305" ref="I154"/>
+    <hyperlink r:id="rId306" ref="J154"/>
+    <hyperlink r:id="rId307" ref="I155"/>
+    <hyperlink r:id="rId308" ref="J155"/>
+    <hyperlink r:id="rId309" ref="I156"/>
+    <hyperlink r:id="rId310" ref="J156"/>
+    <hyperlink r:id="rId311" ref="I157"/>
+    <hyperlink r:id="rId312" ref="J157"/>
   </hyperlinks>
-  <drawing r:id="rId312"/>
+  <drawing r:id="rId313"/>
 </worksheet>
 </file>